--- a/output/fit_clients/fit_round_42.xlsx
+++ b/output/fit_clients/fit_round_42.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>9383884393.368961</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.004065959131542713</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>9</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.459098156326331</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.9572925947231473</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-3.459098156326331</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>7018398770.843049</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.004078332065038079</v>
       </c>
       <c r="G3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
         <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3.11082023172652</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.9225704451304095</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-3.11082023172652</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>6235280324.716726</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.003425310040289087</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.75735918173039</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.9724845213110608</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-3.75735918173039</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>4634104802.259112</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.003939055769573417</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>11</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.975308442048534</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.8368655254518198</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-2.975308442048534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>6262532063.219934</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.002409576172891793</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>14</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.636710612819839</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.8519224590934854</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.636710612819839</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>5665742877.05476</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.0008494535896152052</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>7</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3.500873955066379</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.9546668191533594</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-3.500873955066379</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>7139513746.79203</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.003220395001983125</v>
       </c>
       <c r="G8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>6</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502937</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.7087778749082</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.961597823736218</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-3.7087778749082</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>6168170543.404056</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.004709378507488308</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>4</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="L9" t="n">
-        <v>4.481112889934021</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.9423727202820492</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-4.481112889934021</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>3867262865.430394</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.005301818069203662</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>9</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3.107383107748205</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.9517779295214246</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-3.107383107748205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>3984132290.340854</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.001360100134634913</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>11</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462226</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.799680818840108</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.779550204642467</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.799680818840108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>8734575266.250931</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001448679724755618</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>5</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4.237670120737583</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.024474300500282</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-4.237670120737583</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>6549501902.141902</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.003818358459122811</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>10</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.953287560488286</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.036184928692969</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-2.953287560488286</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>8889499961.500521</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.002650547530100889</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>8</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.306486400751578</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.8963013630924479</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-3.306486400751578</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>7187703321.591117</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.005220744784650636</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>10</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.245533802240451</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.9635322497874086</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-3.245533802240451</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>7880080336.398408</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.004978749201836092</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>9</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.9028365803533996</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.205482337785985</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.124239902062091</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-3.205482337785985</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>6278021641.019978</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.002189033470723665</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>6</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3.719419980748181</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.9626920336077203</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-3.719419980748181</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>6833164319.762094</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.001099442673993476</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>6.400118675403708</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.9994261855069406</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-6.400118675403708</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>4574917754.749541</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.002022640475497914</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>10</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.991041108911123</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.9049333647227564</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-2.991041108911123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>6205478091.946836</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001393037051708787</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>6</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.737379712469451</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8438051326597692</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-3.737379712469451</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>5194925133.926153</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.0049439950457827</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>11</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.8525533430542622</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>3.020381870383894</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.032142823879238</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-3.020381870383894</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>5898949426.349251</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.004605919948659684</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>5</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.5139875501561931</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>4.249200915775496</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.7790742956249266</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-4.249200915775496</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>8099813818.812063</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001238575948420987</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>12</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.676132071622154</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.8625038240619098</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-2.676132071622154</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>6</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>7152577932.127632</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.004401081988987528</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>8</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>3.42258049360616</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.9953655020655443</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-3.42258049360616</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>7145876251.636927</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.003615832974515309</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>7</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.592228541350653</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.943574568339472</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-3.592228541350653</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>5268551228.544978</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.001033097742653882</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>12</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.572470926825236</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.800462101290307</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-2.572470926825236</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>6764245494.447296</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.003378360462761632</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>9</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>3.160532144880331</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.9384105197799326</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-3.160532144880331</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>7220733689.696513</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.004440938034576725</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>8</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>3.342423747307998</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.9149018334236607</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-3.342423747307998</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>6178856558.140831</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001034765077507814</v>
       </c>
       <c r="G29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>7</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>3.637116774496515</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.9956910464490517</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-3.637116774496515</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>8601748297.483412</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.004196134116408375</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>9</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.8675590418556353</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>3.006625818964102</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.091605357298971</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-3.006625818964102</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>6947007190.04227</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.002412104836948039</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
         <v>8</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>3.388913281856741</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.9889989994721784</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-3.388913281856741</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>3793275297.053438</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.0010414632082622</v>
       </c>
       <c r="G32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>7</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590732</v>
-      </c>
-      <c r="L32" t="n">
-        <v>3.818976491492981</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.9590677991792562</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-3.818976491492981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>5667617782.32789</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.002627553177715649</v>
       </c>
       <c r="G33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>7</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3.625972080561723</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.8545812525700477</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-3.625972080561723</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>6</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>4958563991.340759</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.00566392190874466</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>3</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="L34" t="n">
-        <v>5.445452007648395</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.8387036120973415</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-5.445452007648395</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>6948499250.277454</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.002604503119122421</v>
       </c>
       <c r="G35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>7</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="L35" t="n">
-        <v>3.525811548809568</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.9513527236097983</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-3.525811548809568</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>7713726441.804175</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.00243000219203583</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>8</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3.312225593662392</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.024552896395904</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-3.312225593662392</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>6</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>6526826663.256825</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.005752839493289905</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>10</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>3.158282908852845</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.012546757649788</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-3.158282908852845</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>3414924824.973135</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.003491936087405411</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>9</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.7583814074584201</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>3.05465920557426</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1.021110995374087</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-3.05465920557426</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>6158123113.168299</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002900784598511683</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>8</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542555</v>
-      </c>
-      <c r="L39" t="n">
-        <v>3.510116925578584</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.8627861720439994</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-3.510116925578584</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>6049002506.260858</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.004570055286880343</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>8</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930466</v>
-      </c>
-      <c r="L40" t="n">
-        <v>3.505929757317375</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.9974786396797014</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-3.505929757317375</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>5319972974.909513</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001414846225518395</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>7</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>3.552877647295773</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9368561812102204</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-3.552877647295773</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>4775640323.537241</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.004642545546521449</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>7</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>3.429674016766308</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1.005162102646455</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-3.429674016766308</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>4694036739.342613</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.005125684252256179</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>7</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>3.651537236888938</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.9446896543175213</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-3.651537236888938</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>4882506168.773514</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.001985280730660692</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>11</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.1811108773626566</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900504</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2.974708837783936</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.2513656229814287</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-2.974708837783936</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>4061339413.262425</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001686958786442829</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>8</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>3.598430800156155</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.9663860019933485</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-3.598430800156155</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>6</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>7168959353.63969</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.004264059061523825</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>10</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.7848495014440702</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>3.010056144574671</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.9428322996348412</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-3.010056144574671</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>9237086060.200888</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.002449359209805643</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>8</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>3.23277694939875</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.9102873485728706</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-3.23277694939875</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>7435548533.733063</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.002792434392726951</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>5</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.9780647071082432</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>4.193428963397184</v>
-      </c>
-      <c r="M48" t="n">
-        <v>1.24152741487985</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-4.193428963397184</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>4103803796.541504</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.005660115472894335</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>9</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="L49" t="n">
-        <v>3.268598361809512</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.8912270464784027</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-3.268598361809512</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>7942462518.60696</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.002586365277087587</v>
       </c>
       <c r="G50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>3</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>5.371238711553058</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.051469898682191</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-5.371238711553058</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>3894676613.090013</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.004799728828363802</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>10</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>3.052703273113149</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.9558532092730685</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-3.052703273113149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>7111355887.105387</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.001843697654251894</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>8</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="L52" t="n">
-        <v>3.248247734966902</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.8627861720439994</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-3.248247734966902</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>5156296949.533607</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.003016011905365555</v>
       </c>
       <c r="G53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
         <v>8</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.1983575699208209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>3.330670253545149</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.9331316070751068</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-3.330670253545149</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>4355646131.223104</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.004410284351558393</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
         <v>11</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.774572918614497</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.8356065645578744</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.774572918614497</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>8608235484.453024</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.003042382425801706</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>11</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.8391903905906433</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269525</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2.845639281520838</v>
-      </c>
-      <c r="M55" t="n">
-        <v>1.071770329867884</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-2.845639281520838</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>5164456358.786286</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002441161413267514</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>7</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>3.567599459689955</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.9334788553573058</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-3.567599459689955</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>5445895245.182128</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.004283257357544605</v>
       </c>
       <c r="G57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>6</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>3.757681707304776</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.8684000466684209</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-3.757681707304776</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>4857681059.159398</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.002803974505892606</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>13</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.492386645228712</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.7854489491956622</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.492386645228712</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>6</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>4884772061.181407</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.003613596964746358</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>10</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2.947259705701932</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.8789662687058191</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-2.947259705701932</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>5800896561.878033</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.003405965456322886</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>8</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="L60" t="n">
-        <v>3.193694479341103</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.8517334008083179</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-3.193694479341103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>6</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>5173351668.747993</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.00525145558657907</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>10</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3.656794629321009</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.9580535014249981</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-3.656794629321009</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>4512923690.745711</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.002967527080857409</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>10</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.7594264925636155</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>3.566207556358204</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.9729850133519803</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-3.566207556358204</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>6</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>7471226756.481594</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.003724475869176403</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
         <v>10</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2.947144576002829</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.9176414011591667</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-2.947144576002829</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>4668712816.840867</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.003958299164887322</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>5</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="L64" t="n">
-        <v>4.104862279827998</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.9341729646871688</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-4.104862279827998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>6871345420.176356</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.003966712915660762</v>
       </c>
       <c r="G65" t="b">
         <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>6</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.04743439122554057</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>4.250780483466687</v>
-      </c>
-      <c r="M65" t="n">
-        <v>-0.2219883604016098</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-4.250780483466687</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>4256813215.668209</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.00352606885342435</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>8</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>3.351917684394563</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.9183474808995707</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-3.351917684394563</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>6648690548.531182</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.004131340318970108</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>3</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>5.386431242846125</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.9427165646197184</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-5.386431242846125</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>6</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>5757356074.442596</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.002283520049938136</v>
       </c>
       <c r="G68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
         <v>9</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.4904903565777957</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676648</v>
-      </c>
-      <c r="L68" t="n">
-        <v>3.00323662986996</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.622911532962541</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-3.00323662986996</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>4233354236.166086</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.001237837352901582</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>6</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3.873064836642107</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.9928404234230243</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-3.873064836642107</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>6153958323.780218</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.002589863314633265</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>5</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>4.962096969634912</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.9251132429557565</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-4.962096969634912</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>3798027858.321974</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.002610959530845169</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>6</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>3.753295632476441</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.8261531483311371</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-3.753295632476441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>6</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>6762094343.931929</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.002128593582362733</v>
       </c>
       <c r="G72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>8</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>3.312528183186546</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.065850502074405</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-3.312528183186546</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>7120197286.620771</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.001254334597533967</v>
       </c>
       <c r="G73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>7</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>3.513269955222404</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.9667213053022585</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-3.513269955222404</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>6431021956.480034</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.004294592673422256</v>
       </c>
       <c r="G74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
         <v>8</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="L74" t="n">
-        <v>3.251773822394487</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.8856669469182787</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-3.251773822394487</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>6</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>6586375384.262177</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.004034861148924856</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>10</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>3.068042095623875</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.8608124343662631</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-3.068042095623875</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>7300811630.826241</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002964489108106148</v>
       </c>
       <c r="G76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>10</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>3.074159300289407</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.9256374991453833</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-3.074159300289407</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>5652748004.898105</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.004358051250284232</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>3</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="L77" t="n">
-        <v>5.337962765074724</v>
-      </c>
-      <c r="M77" t="n">
-        <v>1.033290163796727</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-5.337962765074724</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>6097207726.700887</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.004870650321971839</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>11</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>2.891214215840774</v>
-      </c>
-      <c r="M78" t="n">
-        <v>1.201033890694662</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-2.891214215840774</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>7674851020.200006</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.002548541980517299</v>
       </c>
       <c r="G79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>6</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>3.723345414639333</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.9724845213110608</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-3.723345414639333</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>5796595276.927184</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.003381222657528557</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>10</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.1141049986981916</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="L80" t="n">
-        <v>3.282156128280532</v>
-      </c>
-      <c r="M80" t="n">
-        <v>-0.1514700225074057</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-3.282156128280532</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>7215728313.524197</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.003964380624593581</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>4</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="L81" t="n">
-        <v>4.539241306603772</v>
-      </c>
-      <c r="M81" t="n">
-        <v>1.005081990421154</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-4.539241306603772</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>6772874163.161671</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.003901246127135589</v>
       </c>
       <c r="G82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>6</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>3.879300164212081</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.9450326556533231</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-3.879300164212081</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>9299702161.04612</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.003301105996512025</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>15</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.400940056520914</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.7805875776405422</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.400940056520914</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>6715319155.403994</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.003721174402057217</v>
       </c>
       <c r="G84" t="b">
         <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>9</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="L84" t="n">
-        <v>3.109734463785953</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.9703999358008134</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-3.109734463785953</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>6</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>4079266181.927854</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.00250256696822885</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>12</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.1135131641767358</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2.681429659134192</v>
-      </c>
-      <c r="M85" t="n">
-        <v>-0.299295798159172</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-2.681429659134192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>6010583498.37733</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.002594718374642777</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>11</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307497</v>
-      </c>
-      <c r="L86" t="n">
-        <v>3.118180363224635</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.9729832535668873</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-3.118180363224635</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>6</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>4950149941.252128</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001292583809577591</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>14</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2.536194303608796</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.9478550452605842</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-2.536194303608796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>7766748397.731605</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.004904071568487123</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>10</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2.918326677993895</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.8296738053121488</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-2.918326677993895</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>7979144343.051547</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.005358459104684367</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>10</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>3.090458652723339</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.9301758369546418</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-3.090458652723339</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>6</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>4982555595.087563</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.003590543667704636</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>10</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>2.914379126222851</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9279094426393094</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-2.914379126222851</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>6</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>6822575802.802602</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.004878929784601126</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>4</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.7656648498431099</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="L91" t="n">
-        <v>4.480340884531988</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.9575485943185764</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-4.480340884531988</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>6</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>3827319405.588054</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.002917015668331357</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>8</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>3.389224974937401</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.04892444174694</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-3.389224974937401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>6</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>7350670151.972389</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001430608860781941</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>8</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="L93" t="n">
-        <v>3.33289945878338</v>
-      </c>
-      <c r="M93" t="n">
-        <v>-0.4364357804719847</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-3.33289945878338</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>7325639141.837329</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001458837347242448</v>
       </c>
       <c r="G94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="L94" t="n">
-        <v>5.351101855353949</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.063417073083362</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-5.351101855353949</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>7555141014.79341</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002628660556728529</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>8</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.7863331584578207</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>3.24962608152092</v>
-      </c>
-      <c r="M95" t="n">
-        <v>1.052391762998441</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-3.24962608152092</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>6914556994.533381</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.003170956754757667</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>12</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.791670055545124</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.9146355736866217</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-2.791670055545124</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>8181005689.074109</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.004090114133197054</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>7</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="L97" t="n">
-        <v>3.673016179158404</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.9141050077103029</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-3.673016179158404</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>6427514367.274426</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.003754896888689076</v>
       </c>
       <c r="G98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>6</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>3.61688314215317</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.8981971192294853</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-3.61688314215317</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>6</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>2904939159.21369</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.005311362761479224</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>12</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.9443649344190685</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.231937672189881</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2.789460268765695</v>
-      </c>
-      <c r="M99" t="n">
-        <v>1.140907606517187</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-2.789460268765695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>5307755308.419367</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.002264927733585222</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>8</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.6275763595246204</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>3.247427696226327</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.8304546813489403</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-3.247427696226327</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>6668623820.363811</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001760437455499827</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>10</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.8516614451470037</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480224</v>
-      </c>
-      <c r="L101" t="n">
-        <v>3.269621633895539</v>
-      </c>
-      <c r="M101" t="n">
-        <v>1.072661516947492</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-3.269621633895539</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_42.xlsx
+++ b/output/fit_clients/fit_round_42.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>9383884393.368961</v>
+        <v>2444681052.118999</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004065959131542713</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>11</v>
+        <v>0.1002930096856187</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.03586444722451667</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1222340581.367467</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>7018398770.843049</v>
+        <v>1983585275.06814</v>
       </c>
       <c r="F3" t="n">
-        <v>0.004078332065038079</v>
-      </c>
-      <c r="G3" t="b">
+        <v>0.1562516270230471</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.04621878963920528</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>1</v>
       </c>
-      <c r="H3" t="n">
-        <v>9</v>
+      <c r="J3" t="n">
+        <v>991792674.8876095</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>6235280324.716726</v>
+        <v>3273331403.487795</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003425310040289087</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
+        <v>0.1219349278415065</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.03714378375905196</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>15</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1636665664.276421</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4634104802.259112</v>
+        <v>4013036214.010702</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003939055769573417</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.08613501689034231</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.03850102692346542</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>16</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2006518109.719544</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>6262532063.219934</v>
+        <v>2584543890.277685</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002409576172891793</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
+        <v>0.09317325384879721</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.05048040489450605</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>8</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1292271911.335947</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>5665742877.05476</v>
+        <v>1982906577.883866</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0008494535896152052</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
+        <v>0.1004241497364345</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.03347119917653207</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>13</v>
+      </c>
+      <c r="J7" t="n">
+        <v>991453351.5970088</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>7139513746.79203</v>
+        <v>3079092887.872912</v>
       </c>
       <c r="F8" t="n">
-        <v>0.003220395001983125</v>
-      </c>
-      <c r="G8" t="b">
+        <v>0.1365777381864246</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.02832470992632053</v>
+      </c>
+      <c r="H8" t="b">
         <v>1</v>
       </c>
-      <c r="H8" t="n">
-        <v>10</v>
+      <c r="I8" t="n">
+        <v>13</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1539546509.389778</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>6168170543.404056</v>
+        <v>1576763415.801773</v>
       </c>
       <c r="F9" t="n">
-        <v>0.004709378507488308</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>14</v>
+        <v>0.194093079419672</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0235141513597831</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>788381793.0941309</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3867262865.430394</v>
+        <v>4143146001.856784</v>
       </c>
       <c r="F10" t="n">
-        <v>0.005301818069203662</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1949323389871873</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.05449597510102992</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>18</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2071573033.745895</v>
       </c>
     </row>
     <row r="11">
@@ -735,19 +799,25 @@
         <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3984132290.340854</v>
+        <v>3223862332.275324</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001360100134634913</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1234809116006056</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.03757954947285708</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>17</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1611931124.505656</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>8734575266.250931</v>
+        <v>3072000371.398849</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001448679724755618</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>12</v>
+        <v>0.1904233229849902</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.03566808375845837</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>14</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1536000210.157261</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>6549501902.141902</v>
+        <v>4489068300.374172</v>
       </c>
       <c r="F13" t="n">
-        <v>0.003818358459122811</v>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" t="n">
-        <v>6</v>
+        <v>0.06986097065320589</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02176135687950319</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>14</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2244534180.119376</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>8889499961.500521</v>
+        <v>2453639142.534245</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002650547530100889</v>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
+        <v>0.1867800353341049</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.03280849812790725</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>13</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1226819645.093967</v>
       </c>
     </row>
     <row r="15">
@@ -847,19 +935,25 @@
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>7187703321.591117</v>
+        <v>1467649786.522035</v>
       </c>
       <c r="F15" t="n">
-        <v>0.005220744784650636</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>12</v>
+        <v>0.1091514763670074</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.03578956795413335</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>733824971.2862933</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" t="n">
+        <v>505</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2527083273.171517</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.08097108730290231</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.03867042880185804</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>5</v>
       </c>
-      <c r="D16" t="n">
-        <v>569</v>
-      </c>
-      <c r="E16" t="n">
-        <v>7880080336.398408</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.004978749201836092</v>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>13</v>
+      <c r="J16" t="n">
+        <v>1263541664.826583</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>6278021641.019978</v>
+        <v>4979813397.243258</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002189033470723665</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>9</v>
+        <v>0.1228841743374648</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.04698198401485858</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>12</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2489906684.669421</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>6833164319.762094</v>
+        <v>3676470515.547989</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001099442673993476</v>
-      </c>
-      <c r="G18" t="b">
+        <v>0.1118036246139564</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.02382710735397151</v>
+      </c>
+      <c r="H18" t="b">
         <v>1</v>
       </c>
-      <c r="H18" t="n">
-        <v>11</v>
+      <c r="I18" t="n">
+        <v>14</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1838235238.924974</v>
       </c>
     </row>
     <row r="19">
@@ -959,19 +1071,25 @@
         <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>4574917754.749541</v>
+        <v>1068978337.939371</v>
       </c>
       <c r="F19" t="n">
-        <v>0.002022640475497914</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1609368542177883</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02725928071854599</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>534489214.8540546</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>6205478091.946836</v>
+        <v>2344264993.18156</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001393037051708787</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
+        <v>0.1300375052642172</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02515778756818686</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>5</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1172132486.111955</v>
       </c>
     </row>
     <row r="21">
@@ -1015,19 +1139,25 @@
         <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>5194925133.926153</v>
+        <v>2672699268.287418</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0049439950457827</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>8</v>
+        <v>0.08909411764056963</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.03636112936651369</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>5</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1336349605.67394</v>
       </c>
     </row>
     <row r="22">
@@ -1043,19 +1173,25 @@
         <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>5898949426.349251</v>
+        <v>3378989862.906662</v>
       </c>
       <c r="F22" t="n">
-        <v>0.004605919948659684</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>4</v>
+        <v>0.1379520948774007</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.03956026091569808</v>
+      </c>
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>11</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1689494970.129619</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>8099813818.812063</v>
+        <v>1482089494.565822</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001238575948420987</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>8</v>
+        <v>0.1218256054777576</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.03700025397160888</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>741044736.0727493</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>7152577932.127632</v>
+        <v>2886152700.269833</v>
       </c>
       <c r="F24" t="n">
-        <v>0.004401081988987528</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>11</v>
+        <v>0.1148073128289138</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.03596198750903012</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>12</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1443076392.910404</v>
       </c>
     </row>
     <row r="25">
@@ -1127,19 +1275,25 @@
         <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>7145876251.636927</v>
+        <v>1248826236.291342</v>
       </c>
       <c r="F25" t="n">
-        <v>0.003615832974515309</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>9</v>
+        <v>0.103073115813192</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02815077296439802</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>624413124.72849</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>5268551228.544978</v>
+        <v>1129847285.457617</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001033097742653882</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.0757677615196489</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.02971362588666431</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>564923646.4599544</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>6764245494.447296</v>
+        <v>3003981620.169421</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003378360462761632</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>12</v>
+        <v>0.150253022856579</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02585827334683024</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>9</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1501990869.571521</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>7220733689.696513</v>
+        <v>3843004816.07171</v>
       </c>
       <c r="F28" t="n">
-        <v>0.004440938034576725</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>11</v>
+        <v>0.1218290224311643</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.03090437147652613</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>14</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1921502492.294121</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>6178856558.140831</v>
+        <v>4946905085.526184</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001034765077507814</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>13</v>
+        <v>0.09918423799921802</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.04464176912285046</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>19</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2473452493.76442</v>
       </c>
     </row>
     <row r="30">
@@ -1267,19 +1445,25 @@
         <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>8601748297.483412</v>
+        <v>2235235514.244251</v>
       </c>
       <c r="F30" t="n">
-        <v>0.004196134116408375</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>15</v>
+        <v>0.08419467319411966</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.02995365913347935</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1117617821.257603</v>
       </c>
     </row>
     <row r="31">
@@ -1295,19 +1479,25 @@
         <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>6947007190.04227</v>
+        <v>1501643257.990118</v>
       </c>
       <c r="F31" t="n">
-        <v>0.002412104836948039</v>
-      </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" t="n">
-        <v>8</v>
+        <v>0.072287884454563</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.05194232996105481</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>750821509.33289</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>3793275297.053438</v>
+        <v>1350282703.389577</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0010414632082622</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.07771789304457624</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.02408787180908361</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>675141388.8912455</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>5667617782.32789</v>
+        <v>2076058717.181233</v>
       </c>
       <c r="F33" t="n">
-        <v>0.002627553177715649</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>9</v>
+        <v>0.1696894904148774</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.04597191058349933</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>12</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1038029432.755717</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>4958563991.340759</v>
+        <v>1116454341.238197</v>
       </c>
       <c r="F34" t="n">
-        <v>0.00566392190874466</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>13</v>
+        <v>0.09177999229404156</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02200937204195208</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>558227189.2660563</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>6948499250.277454</v>
+        <v>1292767907.559715</v>
       </c>
       <c r="F35" t="n">
-        <v>0.002604503119122421</v>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" t="n">
-        <v>10</v>
+        <v>0.08665858183364838</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.03553112958972424</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>646383907.9684671</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>7713726441.804175</v>
+        <v>3105203837.824626</v>
       </c>
       <c r="F36" t="n">
-        <v>0.00243000219203583</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>12</v>
+        <v>0.1372910038391272</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.01796742784489523</v>
+      </c>
+      <c r="H36" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>9</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1552601892.211191</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>6526826663.256825</v>
+        <v>2587541440.537385</v>
       </c>
       <c r="F37" t="n">
-        <v>0.005752839493289905</v>
-      </c>
-      <c r="G37" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" t="n">
+        <v>0.09728911610974282</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.03260798565940848</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>11</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1293770828.224699</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>3414924824.973135</v>
+        <v>1603866385.136598</v>
       </c>
       <c r="F38" t="n">
-        <v>0.003491936087405411</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.1011247159948909</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.02607095302929113</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>801933226.9813175</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>6158123113.168299</v>
+        <v>1607956152.08165</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002900784598511683</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>4</v>
+        <v>0.1832740265605886</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02714639056051574</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>803978129.9411007</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>6049002506.260858</v>
+        <v>1455394502.825124</v>
       </c>
       <c r="F40" t="n">
-        <v>0.004570055286880343</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>10</v>
+        <v>0.1553612422014844</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.05208167752766521</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>727697228.5978944</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>5319972974.909513</v>
+        <v>1770026956.963351</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001414846225518395</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
+        <v>0.1157432249561997</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.04026012129298946</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>12</v>
+      </c>
+      <c r="J41" t="n">
+        <v>885013574.9833705</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4775640323.537241</v>
+        <v>3404180504.634197</v>
       </c>
       <c r="F42" t="n">
-        <v>0.004642545546521449</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>11</v>
+        <v>0.08589267289322793</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.03884025282191075</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>14</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1702090240.423157</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
+        <v>2</v>
+      </c>
+      <c r="D43" t="n">
+        <v>565</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2897677349.690318</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.1249184431679265</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.01984787980864367</v>
+      </c>
+      <c r="H43" t="b">
         <v>1</v>
       </c>
-      <c r="D43" t="n">
-        <v>493</v>
-      </c>
-      <c r="E43" t="n">
-        <v>4694036739.342613</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0.005125684252256179</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>11</v>
+      <c r="I43" t="n">
+        <v>13</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1448838683.373068</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>4882506168.773514</v>
+        <v>1460729394.61611</v>
       </c>
       <c r="F44" t="n">
-        <v>0.001985280730660692</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>12</v>
+        <v>0.08100858685869</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.02821268730927081</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>730364695.9151987</v>
       </c>
     </row>
     <row r="45">
@@ -1687,19 +1955,25 @@
         <v>3</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>4061339413.262425</v>
+        <v>2036276433.588875</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001686958786442829</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3</v>
+        <v>0.1412040417121263</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.04134207838476571</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1018138211.165022</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>7168959353.63969</v>
+        <v>4300510347.893104</v>
       </c>
       <c r="F46" t="n">
-        <v>0.004264059061523825</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>7</v>
+        <v>0.1664141487354607</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.05652032002735071</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>15</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2150255160.564895</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>9237086060.200888</v>
+        <v>4719034070.125188</v>
       </c>
       <c r="F47" t="n">
-        <v>0.002449359209805643</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>6</v>
+        <v>0.1302810554365679</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.05794089190310937</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>11</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2359517074.820559</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>7435548533.733063</v>
+        <v>4165461216.865481</v>
       </c>
       <c r="F48" t="n">
-        <v>0.002792434392726951</v>
-      </c>
-      <c r="G48" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" t="n">
-        <v>7</v>
+        <v>0.07342608391810863</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.02518978350445449</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>14</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2082730633.03631</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>4103803796.541504</v>
+        <v>1310261048.44668</v>
       </c>
       <c r="F49" t="n">
-        <v>0.005660115472894335</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
+        <v>0.1883662744625522</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.03070347223004425</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>655130585.602586</v>
       </c>
     </row>
     <row r="50">
@@ -1827,19 +2125,25 @@
         <v>4</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>7942462518.60696</v>
+        <v>3105127555.573585</v>
       </c>
       <c r="F50" t="n">
-        <v>0.002586365277087587</v>
-      </c>
-      <c r="G50" t="b">
+        <v>0.1402056758977648</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.0475052441687356</v>
+      </c>
+      <c r="H50" t="b">
         <v>1</v>
       </c>
-      <c r="H50" t="n">
-        <v>11</v>
+      <c r="I50" t="n">
+        <v>14</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1552563829.995178</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>3894676613.090013</v>
+        <v>1389562419.624686</v>
       </c>
       <c r="F51" t="n">
-        <v>0.004799728828363802</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1715427859819655</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.04165629224157769</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>694781230.5064834</v>
       </c>
     </row>
     <row r="52">
@@ -1883,19 +2193,25 @@
         <v>4</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>7111355887.105387</v>
+        <v>5190437041.701243</v>
       </c>
       <c r="F52" t="n">
-        <v>0.001843697654251894</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>10</v>
+        <v>0.1200268500456189</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.0570462412919743</v>
+      </c>
+      <c r="H52" t="b">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>17</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2595218507.117857</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>5156296949.533607</v>
+        <v>2519403693.406442</v>
       </c>
       <c r="F53" t="n">
-        <v>0.003016011905365555</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>8</v>
+        <v>0.1463700862074846</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.0214686723825695</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>12</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1259701912.144608</v>
       </c>
     </row>
     <row r="54">
@@ -1939,19 +2261,25 @@
         <v>3</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4355646131.223104</v>
+        <v>3073801299.400843</v>
       </c>
       <c r="F54" t="n">
-        <v>0.004410284351558393</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>11</v>
+        <v>0.1172012802823204</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.03600262081117805</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>14</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1536900640.931527</v>
       </c>
     </row>
     <row r="55">
@@ -1967,19 +2295,25 @@
         <v>5</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>8608235484.453024</v>
+        <v>3318301089.453853</v>
       </c>
       <c r="F55" t="n">
-        <v>0.003042382425801706</v>
-      </c>
-      <c r="G55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" t="n">
-        <v>13</v>
+        <v>0.1650632123966783</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02585502210847641</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>11</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1659150489.391882</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>5164456358.786286</v>
+        <v>1173436819.460614</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002441161413267514</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>6</v>
+        <v>0.1480255552642583</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.03950421636322642</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>586718500.1784196</v>
       </c>
     </row>
     <row r="57">
@@ -2023,19 +2363,25 @@
         <v>3</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>5445895245.182128</v>
+        <v>4476433446.442424</v>
       </c>
       <c r="F57" t="n">
-        <v>0.004283257357544605</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>9</v>
+        <v>0.130433008233001</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.01776365619570653</v>
+      </c>
+      <c r="H57" t="b">
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>13</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2238216851.434772</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>4857681059.159398</v>
+        <v>1825673892.575538</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002803974505892606</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>10</v>
+        <v>0.1935373700399367</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.02525168945912862</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>912836947.5521919</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4884772061.181407</v>
+        <v>4026506131.501982</v>
       </c>
       <c r="F59" t="n">
-        <v>0.003613596964746358</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>4</v>
+        <v>0.1160965950375038</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.04990097521622311</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>11</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2013253040.246407</v>
       </c>
     </row>
     <row r="60">
@@ -2107,19 +2465,25 @@
         <v>5</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>5800896561.878033</v>
+        <v>2749403280.455133</v>
       </c>
       <c r="F60" t="n">
-        <v>0.003405965456322886</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
+        <v>0.1838282427140157</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.031256147310936</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>13</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1374701684.158875</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>5173351668.747993</v>
+        <v>2184979929.661672</v>
       </c>
       <c r="F61" t="n">
-        <v>0.00525145558657907</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>9</v>
+        <v>0.1636583697445093</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.02889954474286633</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1092490022.003793</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>4512923690.745711</v>
+        <v>2022506376.942007</v>
       </c>
       <c r="F62" t="n">
-        <v>0.002967527080857409</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>8</v>
+        <v>0.1614479252929247</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.03028707714788417</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1011253249.730093</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>7471226756.481594</v>
+        <v>3813958027.87358</v>
       </c>
       <c r="F63" t="n">
-        <v>0.003724475869176403</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>10</v>
+        <v>0.09723132711652921</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.03440413611025852</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>12</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1906979084.471312</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4668712816.840867</v>
+        <v>4041163205.405363</v>
       </c>
       <c r="F64" t="n">
-        <v>0.003958299164887322</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1313659269328323</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.02828572521494679</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>13</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2020581641.306228</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>6871345420.176356</v>
+        <v>3732559267.507219</v>
       </c>
       <c r="F65" t="n">
-        <v>0.003966712915660762</v>
-      </c>
-      <c r="G65" t="b">
-        <v>1</v>
-      </c>
-      <c r="H65" t="n">
-        <v>11</v>
+        <v>0.1496774738544688</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02581016239632888</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>15</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1866279668.071383</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4256813215.668209</v>
+        <v>5198842264.70683</v>
       </c>
       <c r="F66" t="n">
-        <v>0.00352606885342435</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>7</v>
+        <v>0.1336755741554378</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.04492696109897058</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>12</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2599421170.006353</v>
       </c>
     </row>
     <row r="67">
@@ -2303,19 +2703,25 @@
         <v>4</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>6648690548.531182</v>
+        <v>2576068152.368176</v>
       </c>
       <c r="F67" t="n">
-        <v>0.004131340318970108</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>7</v>
+        <v>0.08744599384479261</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.05120081264410456</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>13</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1288034130.184381</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5757356074.442596</v>
+        <v>4698087471.842948</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002283520049938136</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>9</v>
+        <v>0.1119191711101971</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.04877944730913492</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>13</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2349043773.86062</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>4233354236.166086</v>
+        <v>1918675279.280972</v>
       </c>
       <c r="F69" t="n">
-        <v>0.001237837352901582</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>8</v>
+        <v>0.1421322079789472</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.05540731207314637</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>959337633.9132277</v>
       </c>
     </row>
     <row r="70">
@@ -2387,19 +2805,25 @@
         <v>5</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>6153958323.780218</v>
+        <v>3460159534.271447</v>
       </c>
       <c r="F70" t="n">
-        <v>0.002589863314633265</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>10</v>
+        <v>0.06322839327481222</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.04741868041606114</v>
+      </c>
+      <c r="H70" t="b">
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>12</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1730079773.887619</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3798027858.321974</v>
+        <v>4634156060.635336</v>
       </c>
       <c r="F71" t="n">
-        <v>0.002610959530845169</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1218689725957338</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.03310021171153672</v>
+      </c>
+      <c r="H71" t="b">
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>15</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2317078108.552948</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>6762094343.931929</v>
+        <v>1404962257.929998</v>
       </c>
       <c r="F72" t="n">
-        <v>0.002128593582362733</v>
-      </c>
-      <c r="G72" t="b">
-        <v>1</v>
-      </c>
-      <c r="H72" t="n">
-        <v>9</v>
+        <v>0.07891752162030324</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.0425453560552289</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>702481171.1010382</v>
       </c>
     </row>
     <row r="73">
@@ -2471,19 +2907,25 @@
         <v>5</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>7120197286.620771</v>
+        <v>2971151029.365176</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001254334597533967</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>10</v>
+        <v>0.0985806625699524</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.03369308605860027</v>
+      </c>
+      <c r="H73" t="b">
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>16</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1485575513.160467</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>6431021956.480034</v>
+        <v>3969691100.250473</v>
       </c>
       <c r="F74" t="n">
-        <v>0.004294592673422256</v>
-      </c>
-      <c r="G74" t="b">
+        <v>0.1644308060123455</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.02787714921650442</v>
+      </c>
+      <c r="H74" t="b">
         <v>1</v>
       </c>
-      <c r="H74" t="n">
-        <v>8</v>
+      <c r="I74" t="n">
+        <v>14</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1984845531.51602</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>6586375384.262177</v>
+        <v>2333364770.587214</v>
       </c>
       <c r="F75" t="n">
-        <v>0.004034861148924856</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>8</v>
+        <v>0.1051633793689764</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.03202644191006583</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1166682317.996895</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>7300811630.826241</v>
+        <v>4802421984.260081</v>
       </c>
       <c r="F76" t="n">
-        <v>0.002964489108106148</v>
-      </c>
-      <c r="G76" t="b">
-        <v>1</v>
-      </c>
-      <c r="H76" t="n">
-        <v>8</v>
+        <v>0.07633277912615484</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.02900985384744966</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>9</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2401211010.358731</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>5652748004.898105</v>
+        <v>2121337798.396869</v>
       </c>
       <c r="F77" t="n">
-        <v>0.004358051250284232</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>14</v>
+        <v>0.1208154251538557</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02142142594594702</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1060668978.467089</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>6097207726.700887</v>
+        <v>3169315595.877638</v>
       </c>
       <c r="F78" t="n">
-        <v>0.004870650321971839</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>9</v>
+        <v>0.1174809206295298</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.04459605009826309</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>15</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1584657823.014073</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>7674851020.200006</v>
+        <v>1345771700.121847</v>
       </c>
       <c r="F79" t="n">
-        <v>0.002548541980517299</v>
-      </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="n">
-        <v>9</v>
+        <v>0.120944601011742</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.03055297180517595</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>672885857.1602364</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5796595276.927184</v>
+        <v>4665964383.914924</v>
       </c>
       <c r="F80" t="n">
-        <v>0.003381222657528557</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>13</v>
+        <v>0.07183762631660333</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.03389136908779673</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>9</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2332982224.399493</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>7215728313.524197</v>
+        <v>3599818334.349075</v>
       </c>
       <c r="F81" t="n">
-        <v>0.003964380624593581</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>7</v>
+        <v>0.1045678563111225</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.03069740671166864</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>9</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1799909115.330008</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>6772874163.161671</v>
+        <v>4229996699.235857</v>
       </c>
       <c r="F82" t="n">
-        <v>0.003901246127135589</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>7</v>
+        <v>0.1306454630714297</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02660524843132504</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>15</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2114998376.387465</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>9299702161.04612</v>
+        <v>2271691847.870937</v>
       </c>
       <c r="F83" t="n">
-        <v>0.003301105996512025</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>12</v>
+        <v>0.108865914946099</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.04268836107072507</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1135845942.859591</v>
       </c>
     </row>
     <row r="84">
@@ -2779,19 +3281,25 @@
         <v>4</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>6715319155.403994</v>
+        <v>2366894433.477843</v>
       </c>
       <c r="F84" t="n">
-        <v>0.003721174402057217</v>
-      </c>
-      <c r="G84" t="b">
-        <v>1</v>
-      </c>
-      <c r="H84" t="n">
-        <v>11</v>
+        <v>0.08580594512016652</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.05237100929903225</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1183447167.853899</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>4079266181.927854</v>
+        <v>3313428165.914573</v>
       </c>
       <c r="F85" t="n">
-        <v>0.00250256696822885</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
+        <v>0.1326040101167173</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.03551326512970917</v>
+      </c>
+      <c r="H85" t="b">
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>16</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1656714177.546258</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>6010583498.37733</v>
+        <v>2810960003.128187</v>
       </c>
       <c r="F86" t="n">
-        <v>0.002594718374642777</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" t="n">
-        <v>14</v>
+        <v>0.1550533364663047</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.02647622163220931</v>
+      </c>
+      <c r="H86" t="b">
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>3</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1405480141.799372</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>4950149941.252128</v>
+        <v>1296389122.772243</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001292583809577591</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1546469571306242</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.02945955633601248</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>648194641.5446719</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>7766748397.731605</v>
+        <v>2889518873.99366</v>
       </c>
       <c r="F88" t="n">
-        <v>0.004904071568487123</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>9</v>
+        <v>0.1545626361807189</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.02925563874345968</v>
+      </c>
+      <c r="H88" t="b">
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>15</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1444759456.370999</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>7979144343.051547</v>
+        <v>3252684442.919412</v>
       </c>
       <c r="F89" t="n">
-        <v>0.005358459104684367</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>9</v>
+        <v>0.1108064062681778</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.03685076689324631</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>15</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1626342240.878776</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>4982555595.087563</v>
+        <v>1402275746.308941</v>
       </c>
       <c r="F90" t="n">
-        <v>0.003590543667704636</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>7</v>
+        <v>0.1345901050876715</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.05314474967230651</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>701137833.8368074</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>6822575802.802602</v>
+        <v>1530496412.930541</v>
       </c>
       <c r="F91" t="n">
-        <v>0.004878929784601126</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>12</v>
+        <v>0.172766478195525</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.05697379254710906</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>765248241.1617137</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>3827319405.588054</v>
+        <v>2301524023.498432</v>
       </c>
       <c r="F92" t="n">
-        <v>0.002917015668331357</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.1014712119078515</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.0330195155416317</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>12</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1150761980.538654</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>7350670151.972389</v>
+        <v>3687489035.168386</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001430608860781941</v>
-      </c>
-      <c r="G93" t="b">
+        <v>0.1164705999775092</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.03759990141888756</v>
+      </c>
+      <c r="H93" t="b">
         <v>1</v>
       </c>
-      <c r="H93" t="n">
-        <v>14</v>
+      <c r="I93" t="n">
+        <v>12</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1843744538.26758</v>
       </c>
     </row>
     <row r="94">
@@ -3059,19 +3621,25 @@
         <v>4</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>7325639141.837329</v>
+        <v>2005345996.795769</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001458837347242448</v>
-      </c>
-      <c r="G94" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" t="n">
-        <v>14</v>
+        <v>0.1164295856329576</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.03303631666808052</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1002672997.283815</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>7555141014.79341</v>
+        <v>2751874293.57781</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002628660556728529</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>11</v>
+        <v>0.08383383872827498</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.04724227003812812</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>10</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1375937164.442186</v>
       </c>
     </row>
     <row r="96">
@@ -3115,19 +3689,25 @@
         <v>3</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>6914556994.533381</v>
+        <v>1578594492.387869</v>
       </c>
       <c r="F96" t="n">
-        <v>0.003170956754757667</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>11</v>
+        <v>0.126557590144153</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.04369882112393347</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>789297277.9958134</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>8181005689.074109</v>
+        <v>4371325220.272153</v>
       </c>
       <c r="F97" t="n">
-        <v>0.004090114133197054</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>11</v>
+        <v>0.1147562948870887</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02363130292884855</v>
+      </c>
+      <c r="H97" t="b">
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>13</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2185662696.227048</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>6427514367.274426</v>
+        <v>3845733996.864427</v>
       </c>
       <c r="F98" t="n">
-        <v>0.003754896888689076</v>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>16</v>
+        <v>0.0801593892421149</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02502329018973463</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>11</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1922867040.34458</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2904939159.21369</v>
+        <v>2446538581.720647</v>
       </c>
       <c r="F99" t="n">
-        <v>0.005311362761479224</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.09898631108697352</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.03418801407366229</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>12</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1223269236.518574</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>5307755308.419367</v>
+        <v>3521865812.064209</v>
       </c>
       <c r="F100" t="n">
-        <v>0.002264927733585222</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>4</v>
+        <v>0.1780739571005377</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.02319437409292581</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>13</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1760932938.365482</v>
       </c>
     </row>
     <row r="101">
@@ -3255,19 +3859,25 @@
         <v>5</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>6668623820.363811</v>
+        <v>3317852906.97236</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001760437455499827</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>14</v>
+        <v>0.208357900301114</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.03790861686273955</v>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1658926584.389168</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_42.xlsx
+++ b/output/fit_clients/fit_round_42.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2444681052.118999</v>
+        <v>1523033566.456814</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1002930096856187</v>
+        <v>0.1098085844736782</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03586444722451667</v>
+        <v>0.0387411846786291</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1222340581.367467</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1983585275.06814</v>
+        <v>1913336274.763364</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1562516270230471</v>
+        <v>0.1556097753664356</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04621878963920528</v>
+        <v>0.03514249918145348</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>991792674.8876095</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3273331403.487795</v>
+        <v>3882503743.838942</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1219349278415065</v>
+        <v>0.1153524023751575</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03714378375905196</v>
+        <v>0.02896936270607923</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1636665664.276421</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4013036214.010702</v>
+        <v>3839552824.48558</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08613501689034231</v>
+        <v>0.09310107463136362</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03850102692346542</v>
+        <v>0.0434406021703419</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>16</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2006518109.719544</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2584543890.277685</v>
+        <v>2558830435.122196</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09317325384879721</v>
+        <v>0.1304106979878553</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05048040489450605</v>
+        <v>0.05554481080705941</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>8</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1292271911.335947</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1982906577.883866</v>
+        <v>3096835396.789133</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1004241497364345</v>
+        <v>0.06864952233210009</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03347119917653207</v>
+        <v>0.04135150129521247</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>13</v>
-      </c>
-      <c r="J7" t="n">
-        <v>991453351.5970088</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3079092887.872912</v>
+        <v>3725604329.455036</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1365777381864246</v>
+        <v>0.142079881152601</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02832470992632053</v>
+        <v>0.0335966894292728</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>13</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1539546509.389778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1576763415.801773</v>
+        <v>2004399303.120913</v>
       </c>
       <c r="F9" t="n">
-        <v>0.194093079419672</v>
+        <v>0.1498357964202307</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0235141513597831</v>
+        <v>0.03103235631342648</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>788381793.0941309</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4143146001.856784</v>
+        <v>4370240663.156302</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1949323389871873</v>
+        <v>0.1817099782614948</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05449597510102992</v>
+        <v>0.03663574864880412</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>18</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2071573033.745895</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3223862332.275324</v>
+        <v>2919545002.668839</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1234809116006056</v>
+        <v>0.1226840148679325</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03757954947285708</v>
+        <v>0.03827695877276914</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>17</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1611931124.505656</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3072000371.398849</v>
+        <v>2107364643.293082</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1904233229849902</v>
+        <v>0.1982706984532155</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03566808375845837</v>
+        <v>0.04906741914876451</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>14</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1536000210.157261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4489068300.374172</v>
+        <v>4770324714.288172</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06986097065320589</v>
+        <v>0.09860125443127693</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02176135687950319</v>
+        <v>0.02021029674267134</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>14</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2244534180.119376</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2453639142.534245</v>
+        <v>2882263479.087681</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1867800353341049</v>
+        <v>0.1195923039057183</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03280849812790725</v>
+        <v>0.03637248770597157</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>13</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1226819645.093967</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1467649786.522035</v>
+        <v>1215154776.04464</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1091514763670074</v>
+        <v>0.07652845123835063</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03578956795413335</v>
+        <v>0.03967751687558224</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>733824971.2862933</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2527083273.171517</v>
+        <v>2029625457.156077</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08097108730290231</v>
+        <v>0.07651195829488254</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03867042880185804</v>
+        <v>0.04282727425600009</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>5</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1263541664.826583</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4979813397.243258</v>
+        <v>4324623924.442549</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1228841743374648</v>
+        <v>0.1285760712768072</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04698198401485858</v>
+        <v>0.03773362429805832</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>12</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2489906684.669421</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3676470515.547989</v>
+        <v>3848722500.1918</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1118036246139564</v>
+        <v>0.1385825911752736</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02382710735397151</v>
+        <v>0.03325414110698395</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>14</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1838235238.924974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1068978337.939371</v>
+        <v>1094866767.068937</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1609368542177883</v>
+        <v>0.1896344265348447</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02725928071854599</v>
+        <v>0.01731572706451126</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>534489214.8540546</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2344264993.18156</v>
+        <v>2614671103.498854</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1300375052642172</v>
+        <v>0.1097801477601569</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02515778756818686</v>
+        <v>0.02239144795004424</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>5</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1172132486.111955</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2672699268.287418</v>
+        <v>1650846078.926843</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08909411764056963</v>
+        <v>0.06921583449009555</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03636112936651369</v>
+        <v>0.03147726851816606</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>5</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1336349605.67394</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3378989862.906662</v>
+        <v>2545784905.921064</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1379520948774007</v>
+        <v>0.1116018866373697</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03956026091569808</v>
+        <v>0.0347831107566879</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>11</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1689494970.129619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1482089494.565822</v>
+        <v>1148868447.913101</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1218256054777576</v>
+        <v>0.154133447531061</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03700025397160888</v>
+        <v>0.04928338265042821</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>741044736.0727493</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2886152700.269833</v>
+        <v>3732083832.76931</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1148073128289138</v>
+        <v>0.141908628788186</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03596198750903012</v>
+        <v>0.03432642723220582</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>12</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1443076392.910404</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1248826236.291342</v>
+        <v>1261447580.524996</v>
       </c>
       <c r="F25" t="n">
-        <v>0.103073115813192</v>
+        <v>0.08751656128494385</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02815077296439802</v>
+        <v>0.02603463925626561</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>624413124.72849</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1129847285.457617</v>
+        <v>1227097220.992737</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0757677615196489</v>
+        <v>0.0840583897056673</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02971362588666431</v>
+        <v>0.02753504986482136</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>564923646.4599544</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3003981620.169421</v>
+        <v>4582679080.519175</v>
       </c>
       <c r="F27" t="n">
-        <v>0.150253022856579</v>
+        <v>0.1049354123730719</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02585827334683024</v>
+        <v>0.02249522988716305</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>9</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1501990869.571521</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3843004816.07171</v>
+        <v>2565536367.567081</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1218290224311643</v>
+        <v>0.127342208124327</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03090437147652613</v>
+        <v>0.04672849810874236</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>14</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1921502492.294121</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4946905085.526184</v>
+        <v>5083040364.324381</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09918423799921802</v>
+        <v>0.1269537559327172</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04464176912285046</v>
+        <v>0.04140482253202942</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>19</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2473452493.76442</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2235235514.244251</v>
+        <v>1787259416.708514</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08419467319411966</v>
+        <v>0.109752134967531</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02995365913347935</v>
+        <v>0.0299257481779448</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1117617821.257603</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1501643257.990118</v>
+        <v>1429530256.624371</v>
       </c>
       <c r="F31" t="n">
-        <v>0.072287884454563</v>
+        <v>0.06944068242617911</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05194232996105481</v>
+        <v>0.03479326811241371</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>750821509.33289</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1350282703.389577</v>
+        <v>1789031898.319451</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07771789304457624</v>
+        <v>0.1041882674226477</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02408787180908361</v>
+        <v>0.03747418408918821</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>675141388.8912455</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2076058717.181233</v>
+        <v>1904455045.980951</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1696894904148774</v>
+        <v>0.1305869732179737</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04597191058349933</v>
+        <v>0.048894545170984</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>12</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1038029432.755717</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1116454341.238197</v>
+        <v>1457710404.382655</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09177999229404156</v>
+        <v>0.09525527318970145</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02200937204195208</v>
+        <v>0.02034749861108835</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>558227189.2660563</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1292767907.559715</v>
+        <v>1266994434.056967</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08665858183364838</v>
+        <v>0.08458701009439872</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03553112958972424</v>
+        <v>0.0333252218452857</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>646383907.9684671</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3105203837.824626</v>
+        <v>2095009415.071469</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1372910038391272</v>
+        <v>0.1183899246604939</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01796742784489523</v>
+        <v>0.0255579434878375</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>9</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1552601892.211191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2587541440.537385</v>
+        <v>2134582992.425512</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09728911610974282</v>
+        <v>0.1041257473508381</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03260798565940848</v>
+        <v>0.03336238075959829</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>11</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1293770828.224699</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1603866385.136598</v>
+        <v>1917270066.125585</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1011247159948909</v>
+        <v>0.1003433183081779</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02607095302929113</v>
+        <v>0.03768052661006384</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>801933226.9813175</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1607956152.08165</v>
+        <v>1783540131.12886</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1832740265605886</v>
+        <v>0.1600800116720887</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02714639056051574</v>
+        <v>0.02752972077240106</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>803978129.9411007</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1455394502.825124</v>
+        <v>1298922408.674523</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1553612422014844</v>
+        <v>0.1402706551275884</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05208167752766521</v>
+        <v>0.05706940170055586</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>727697228.5978944</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1770026956.963351</v>
+        <v>2574673570.29686</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1157432249561997</v>
+        <v>0.1210749784598054</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04026012129298946</v>
+        <v>0.04338359804632326</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>12</v>
-      </c>
-      <c r="J41" t="n">
-        <v>885013574.9833705</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3404180504.634197</v>
+        <v>2968597736.740578</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08589267289322793</v>
+        <v>0.1157212088333039</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03884025282191075</v>
+        <v>0.03206673172666516</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>14</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1702090240.423157</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2897677349.690318</v>
+        <v>2951092582.993244</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1249184431679265</v>
+        <v>0.1303661566081624</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01984787980864367</v>
+        <v>0.0209693400848166</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>13</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1448838683.373068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1460729394.61611</v>
+        <v>1857151930.437466</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08100858685869</v>
+        <v>0.07366861002046241</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02821268730927081</v>
+        <v>0.02618298154975031</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>730364695.9151987</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2036276433.588875</v>
+        <v>2016019645.48875</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1412040417121263</v>
+        <v>0.1450866063750894</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04134207838476571</v>
+        <v>0.04994895802385212</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1018138211.165022</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4300510347.893104</v>
+        <v>5593141987.827368</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1664141487354607</v>
+        <v>0.1497012077961073</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05652032002735071</v>
+        <v>0.049701924428955</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>15</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2150255160.564895</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4719034070.125188</v>
+        <v>4858452887.204542</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1302810554365679</v>
+        <v>0.1695320681158904</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05794089190310937</v>
+        <v>0.03613241434138007</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>11</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2359517074.820559</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4165461216.865481</v>
+        <v>3188686859.608516</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07342608391810863</v>
+        <v>0.1011992906398818</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02518978350445449</v>
+        <v>0.02659320037251759</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>14</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2082730633.03631</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1310261048.44668</v>
+        <v>1580249475.878328</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1883662744625522</v>
+        <v>0.1252573152595656</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03070347223004425</v>
+        <v>0.03856292769407629</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>655130585.602586</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3105127555.573585</v>
+        <v>3450137070.838003</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1402056758977648</v>
+        <v>0.1226645652842517</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0475052441687356</v>
+        <v>0.03332628574972361</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>14</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1552563829.995178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1389562419.624686</v>
+        <v>1049187322.067998</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1715427859819655</v>
+        <v>0.1672778012651087</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04165629224157769</v>
+        <v>0.04550515334160535</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>694781230.5064834</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5190437041.701243</v>
+        <v>4329521250.210117</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1200268500456189</v>
+        <v>0.1091429324226268</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0570462412919743</v>
+        <v>0.04003334936353247</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>17</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2595218507.117857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2519403693.406442</v>
+        <v>3624645196.935668</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1463700862074846</v>
+        <v>0.1244006400845573</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0214686723825695</v>
+        <v>0.0320950093186378</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>12</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1259701912.144608</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3073801299.400843</v>
+        <v>3231474985.065184</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1172012802823204</v>
+        <v>0.1631772036227041</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03600262081117805</v>
+        <v>0.04389876612598732</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>14</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1536900640.931527</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3318301089.453853</v>
+        <v>4091279319.633702</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1650632123966783</v>
+        <v>0.2227410755062503</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02585502210847641</v>
+        <v>0.0229365052040826</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>11</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1659150489.391882</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1173436819.460614</v>
+        <v>1767575955.938509</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1480255552642583</v>
+        <v>0.1268159874602685</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03950421636322642</v>
+        <v>0.04670135562903217</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>586718500.1784196</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4476433446.442424</v>
+        <v>4305691718.358161</v>
       </c>
       <c r="F57" t="n">
-        <v>0.130433008233001</v>
+        <v>0.1189933484947349</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01776365619570653</v>
+        <v>0.02482763249899749</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>13</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2238216851.434772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1825673892.575538</v>
+        <v>1512236321.249395</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1935373700399367</v>
+        <v>0.196677796806455</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02525168945912862</v>
+        <v>0.03962216710976881</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>912836947.5521919</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4026506131.501982</v>
+        <v>4380662208.983809</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1160965950375038</v>
+        <v>0.1102505807346092</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04990097521622311</v>
+        <v>0.04377642836535919</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>11</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2013253040.246407</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2749403280.455133</v>
+        <v>3105070154.077046</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1838282427140157</v>
+        <v>0.1936253430495817</v>
       </c>
       <c r="G60" t="n">
-        <v>0.031256147310936</v>
+        <v>0.02532348848942071</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>13</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1374701684.158875</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2184979929.661672</v>
+        <v>2515224265.272338</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1636583697445093</v>
+        <v>0.1322291077791207</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02889954474286633</v>
+        <v>0.03106659179703897</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>14</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1092490022.003793</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2022506376.942007</v>
+        <v>1900323438.761417</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1614479252929247</v>
+        <v>0.1892873096755461</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03028707714788417</v>
+        <v>0.03235512953511503</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1011253249.730093</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3813958027.87358</v>
+        <v>5478595287.673856</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09723132711652921</v>
+        <v>0.07339020981498741</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03440413611025852</v>
+        <v>0.03298468812914844</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>12</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1906979084.471312</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4041163205.405363</v>
+        <v>5194278830.585593</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1313659269328323</v>
+        <v>0.1403421116947908</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02828572521494679</v>
+        <v>0.03481033198972808</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>13</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2020581641.306228</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3732559267.507219</v>
+        <v>4596862881.40416</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1496774738544688</v>
+        <v>0.148871345647327</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02581016239632888</v>
+        <v>0.02129069020809894</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>15</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1866279668.071383</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5198842264.70683</v>
+        <v>3979033795.925646</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1336755741554378</v>
+        <v>0.1103322744730913</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04492696109897058</v>
+        <v>0.03606349125897857</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>12</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2599421170.006353</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2576068152.368176</v>
+        <v>3014366642.750888</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08744599384479261</v>
+        <v>0.06243981306561277</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05120081264410456</v>
+        <v>0.03233915097289639</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>13</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1288034130.184381</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4698087471.842948</v>
+        <v>4336877266.770409</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1119191711101971</v>
+        <v>0.09787183926753501</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04877944730913492</v>
+        <v>0.047616860741801</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>13</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2349043773.86062</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1918675279.280972</v>
+        <v>1930679736.755361</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1421322079789472</v>
+        <v>0.1631387993208641</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05540731207314637</v>
+        <v>0.03861391068676583</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>959337633.9132277</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3460159534.271447</v>
+        <v>2786016413.393674</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06322839327481222</v>
+        <v>0.06270546254903057</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04741868041606114</v>
+        <v>0.03430578191057689</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>12</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1730079773.887619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4634156060.635336</v>
+        <v>3901930128.267425</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1218689725957338</v>
+        <v>0.1123839419736647</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03310021171153672</v>
+        <v>0.02142841032573683</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>15</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2317078108.552948</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1404962257.929998</v>
+        <v>2265995596.217255</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07891752162030324</v>
+        <v>0.0847884527071778</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0425453560552289</v>
+        <v>0.0494334144196077</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>702481171.1010382</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2971151029.365176</v>
+        <v>3524596561.37904</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0985806625699524</v>
+        <v>0.07070533293326331</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03369308605860027</v>
+        <v>0.03347133377343503</v>
       </c>
       <c r="H73" t="b">
         <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>16</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1485575513.160467</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3969691100.250473</v>
+        <v>2490608366.632036</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1644308060123455</v>
+        <v>0.1608977797644866</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02787714921650442</v>
+        <v>0.03413013321915009</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>14</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1984845531.51602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2333364770.587214</v>
+        <v>2210188722.863412</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1051633793689764</v>
+        <v>0.1283567667486819</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03202644191006583</v>
+        <v>0.03786541528349091</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1166682317.996895</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4802421984.260081</v>
+        <v>4356298307.61271</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07633277912615484</v>
+        <v>0.1067151501076602</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02900985384744966</v>
+        <v>0.02968336115550518</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>9</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2401211010.358731</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2121337798.396869</v>
+        <v>1556663518.94094</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1208154251538557</v>
+        <v>0.1147540881284805</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02142142594594702</v>
+        <v>0.02975748568043208</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1060668978.467089</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3169315595.877638</v>
+        <v>3514895177.954752</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1174809206295298</v>
+        <v>0.1138449755517982</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04459605009826309</v>
+        <v>0.05209810251076152</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>15</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1584657823.014073</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1345771700.121847</v>
+        <v>1609966566.360711</v>
       </c>
       <c r="F79" t="n">
-        <v>0.120944601011742</v>
+        <v>0.1374261147354592</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03055297180517595</v>
+        <v>0.02766895790596949</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>672885857.1602364</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4665964383.914924</v>
+        <v>4340272388.911457</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07183762631660333</v>
+        <v>0.07012989927228165</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03389136908779673</v>
+        <v>0.03493105558675825</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>9</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2332982224.399493</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3599818334.349075</v>
+        <v>4950795884.593661</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1045678563111225</v>
+        <v>0.1161142962335875</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03069740671166864</v>
+        <v>0.03157924259621259</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>9</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1799909115.330008</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4229996699.235857</v>
+        <v>3911453468.581073</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1306454630714297</v>
+        <v>0.1893813201406279</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02660524843132504</v>
+        <v>0.02448924945166326</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>15</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2114998376.387465</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2271691847.870937</v>
+        <v>1588261710.547396</v>
       </c>
       <c r="F83" t="n">
-        <v>0.108865914946099</v>
+        <v>0.1207602251206641</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04268836107072507</v>
+        <v>0.04509541683085568</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1135845942.859591</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2366894433.477843</v>
+        <v>2091422068.06172</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08580594512016652</v>
+        <v>0.1193755905597637</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05237100929903225</v>
+        <v>0.04025943557399528</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1183447167.853899</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3313428165.914573</v>
+        <v>3407690409.427766</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1326040101167173</v>
+        <v>0.139174133098372</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03551326512970917</v>
+        <v>0.04433551319106167</v>
       </c>
       <c r="H85" t="b">
         <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>16</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1656714177.546258</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2810960003.128187</v>
+        <v>2743810197.159917</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1550533364663047</v>
+        <v>0.1555679255892256</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02647622163220931</v>
+        <v>0.02602405247035349</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>3</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1405480141.799372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1296389122.772243</v>
+        <v>1236982427.096533</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1546469571306242</v>
+        <v>0.132903293995335</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02945955633601248</v>
+        <v>0.0434525141720712</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>648194641.5446719</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2889518873.99366</v>
+        <v>2838462238.523849</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1545626361807189</v>
+        <v>0.1523705476935615</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02925563874345968</v>
+        <v>0.03950595403365672</v>
       </c>
       <c r="H88" t="b">
         <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>15</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1444759456.370999</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3252684442.919412</v>
+        <v>2450674584.140038</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1108064062681778</v>
+        <v>0.120645521878976</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03685076689324631</v>
+        <v>0.03396296857280157</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>15</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1626342240.878776</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1402275746.308941</v>
+        <v>1336587977.528578</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1345901050876715</v>
+        <v>0.08986384980958044</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05314474967230651</v>
+        <v>0.04211091256779134</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>701137833.8368074</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1530496412.930541</v>
+        <v>1669160982.643239</v>
       </c>
       <c r="F91" t="n">
-        <v>0.172766478195525</v>
+        <v>0.1498584698644113</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05697379254710906</v>
+        <v>0.0443836581016362</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>765248241.1617137</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2301524023.498432</v>
+        <v>2453972712.67377</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1014712119078515</v>
+        <v>0.1054979669818229</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0330195155416317</v>
+        <v>0.04584561254904705</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>12</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1150761980.538654</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3687489035.168386</v>
+        <v>3215787206.691206</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1164705999775092</v>
+        <v>0.1365730879300014</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03759990141888756</v>
+        <v>0.0352415342172541</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>12</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1843744538.26758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2005345996.795769</v>
+        <v>1953083997.979259</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1164295856329576</v>
+        <v>0.1098753892668195</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03303631666808052</v>
+        <v>0.03124538964478114</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1002672997.283815</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2751874293.57781</v>
+        <v>3100537276.172184</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08383383872827498</v>
+        <v>0.1163854535300325</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04724227003812812</v>
+        <v>0.04229422390987595</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>10</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1375937164.442186</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1578594492.387869</v>
+        <v>2345505518.452663</v>
       </c>
       <c r="F96" t="n">
-        <v>0.126557590144153</v>
+        <v>0.1139536023818441</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04369882112393347</v>
+        <v>0.03078006360472955</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>789297277.9958134</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4371325220.272153</v>
+        <v>5130092452.378932</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1147562948870887</v>
+        <v>0.1310531200981586</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02363130292884855</v>
+        <v>0.02453019092543993</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>13</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2185662696.227048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3845733996.864427</v>
+        <v>3050492649.057863</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0801593892421149</v>
+        <v>0.1147725327582494</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02502329018973463</v>
+        <v>0.0300346593586853</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>11</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1922867040.34458</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2446538581.720647</v>
+        <v>2662729788.326184</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09898631108697352</v>
+        <v>0.09895624900049334</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03418801407366229</v>
+        <v>0.02915876658605899</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>12</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1223269236.518574</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3521865812.064209</v>
+        <v>3164772082.552423</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1780739571005377</v>
+        <v>0.1643650270303205</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02319437409292581</v>
+        <v>0.02744686813566892</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>13</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1760932938.365482</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3317852906.97236</v>
+        <v>2633371757.731814</v>
       </c>
       <c r="F101" t="n">
-        <v>0.208357900301114</v>
+        <v>0.1585399640498324</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03790861686273955</v>
+        <v>0.05156909142571493</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>18</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1658926584.389168</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_42.xlsx
+++ b/output/fit_clients/fit_round_42.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1523033566.456814</v>
+        <v>1893004921.086655</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1098085844736782</v>
+        <v>0.07527090338130092</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0387411846786291</v>
+        <v>0.03903178193449187</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1913336274.763364</v>
+        <v>1917376876.419305</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1556097753664356</v>
+        <v>0.1307587494329444</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03514249918145348</v>
+        <v>0.05039410873537654</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3882503743.838942</v>
+        <v>4306826946.284077</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1153524023751575</v>
+        <v>0.1137945296920062</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02896936270607923</v>
+        <v>0.03458094313718878</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3839552824.48558</v>
+        <v>3726668703.700272</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09310107463136362</v>
+        <v>0.09084675653756398</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0434406021703419</v>
+        <v>0.04175798595311289</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2558830435.122196</v>
+        <v>2611763792.115446</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1304106979878553</v>
+        <v>0.1099948779860684</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05554481080705941</v>
+        <v>0.04496226460572273</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3096835396.789133</v>
+        <v>2527786290.407408</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06864952233210009</v>
+        <v>0.09553361613742087</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04135150129521247</v>
+        <v>0.0465014398062219</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3725604329.455036</v>
+        <v>2853643574.851361</v>
       </c>
       <c r="F8" t="n">
-        <v>0.142079881152601</v>
+        <v>0.1977308438301396</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0335966894292728</v>
+        <v>0.03301600491092854</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2004399303.120913</v>
+        <v>2281473996.130862</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1498357964202307</v>
+        <v>0.1761962371310296</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03103235631342648</v>
+        <v>0.03653906422934686</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4370240663.156302</v>
+        <v>5082973729.249738</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1817099782614948</v>
+        <v>0.1913766914288032</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03663574864880412</v>
+        <v>0.04589698826108234</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2919545002.668839</v>
+        <v>3756532510.579186</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1226840148679325</v>
+        <v>0.1211072001156547</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03827695877276914</v>
+        <v>0.04979129896265901</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2107364643.293082</v>
+        <v>3241155317.794613</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1982706984532155</v>
+        <v>0.1328022476887714</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04906741914876451</v>
+        <v>0.05363059056549372</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4770324714.288172</v>
+        <v>3883124401.319924</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09860125443127693</v>
+        <v>0.08184102197958916</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02021029674267134</v>
+        <v>0.02005771971941077</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2882263479.087681</v>
+        <v>2971223511.150381</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1195923039057183</v>
+        <v>0.1533518560089219</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03637248770597157</v>
+        <v>0.02961874926072507</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1215154776.04464</v>
+        <v>1342744036.094793</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07652845123835063</v>
+        <v>0.1079802987953732</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03967751687558224</v>
+        <v>0.03005132897035849</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2029625457.156077</v>
+        <v>2369129209.853779</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07651195829488254</v>
+        <v>0.09181903802326495</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04282727425600009</v>
+        <v>0.04450411892962207</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4324623924.442549</v>
+        <v>3224979263.418583</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1285760712768072</v>
+        <v>0.1562214735561985</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03773362429805832</v>
+        <v>0.03209661324775799</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3848722500.1918</v>
+        <v>3820857136.441119</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1385825911752736</v>
+        <v>0.1316491477212396</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03325414110698395</v>
+        <v>0.03340857636946888</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1094866767.068937</v>
+        <v>1073506149.671044</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1896344265348447</v>
+        <v>0.1244545093247296</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01731572706451126</v>
+        <v>0.02313325530546257</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2614671103.498854</v>
+        <v>2734237163.067555</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1097801477601569</v>
+        <v>0.1004372465084803</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02239144795004424</v>
+        <v>0.02603885193819091</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1650846078.926843</v>
+        <v>2482373145.393276</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06921583449009555</v>
+        <v>0.09684308671551768</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03147726851816606</v>
+        <v>0.03735475693781796</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2545784905.921064</v>
+        <v>2982140786.931295</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1116018866373697</v>
+        <v>0.09338739084050193</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0347831107566879</v>
+        <v>0.03495782402521181</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1148868447.913101</v>
+        <v>1050511252.09247</v>
       </c>
       <c r="F23" t="n">
-        <v>0.154133447531061</v>
+        <v>0.1445262189961684</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04928338265042821</v>
+        <v>0.03871008282458124</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3732083832.76931</v>
+        <v>2801123740.145227</v>
       </c>
       <c r="F24" t="n">
-        <v>0.141908628788186</v>
+        <v>0.109546107512187</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03432642723220582</v>
+        <v>0.03282634670051386</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1261447580.524996</v>
+        <v>923511349.0120159</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08751656128494385</v>
+        <v>0.1103065723156912</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02603463925626561</v>
+        <v>0.02662069529912406</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1227097220.992737</v>
+        <v>1029662983.001052</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0840583897056673</v>
+        <v>0.09306524670211007</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02753504986482136</v>
+        <v>0.03395552418664385</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4582679080.519175</v>
+        <v>3035688489.911774</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1049354123730719</v>
+        <v>0.1255449524380313</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02249522988716305</v>
+        <v>0.02352420450176099</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2565536367.567081</v>
+        <v>2475733166.065289</v>
       </c>
       <c r="F28" t="n">
-        <v>0.127342208124327</v>
+        <v>0.09400823165914343</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04672849810874236</v>
+        <v>0.04567891774069277</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,13 +1242,13 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5083040364.324381</v>
+        <v>3648212905.07771</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1269537559327172</v>
+        <v>0.1324526848878225</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04140482253202942</v>
+        <v>0.03255519662972298</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1787259416.708514</v>
+        <v>2075559067.107499</v>
       </c>
       <c r="F30" t="n">
-        <v>0.109752134967531</v>
+        <v>0.1164495903079066</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0299257481779448</v>
+        <v>0.02523190103035054</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1429530256.624371</v>
+        <v>1490990321.249246</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06944068242617911</v>
+        <v>0.107139365704441</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03479326811241371</v>
+        <v>0.03908090497312466</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1326,16 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1789031898.319451</v>
+        <v>1796464668.003798</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1041882674226477</v>
+        <v>0.1184984730590932</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03747418408918821</v>
+        <v>0.03611756044238543</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1904455045.980951</v>
+        <v>2934095545.086717</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1305869732179737</v>
+        <v>0.1470229802611613</v>
       </c>
       <c r="G33" t="n">
-        <v>0.048894545170984</v>
+        <v>0.04490029266460165</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1457710404.382655</v>
+        <v>1397649611.751255</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09525527318970145</v>
+        <v>0.107604582921806</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02034749861108835</v>
+        <v>0.02312099668151318</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1266994434.056967</v>
+        <v>1100122093.946696</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08458701009439872</v>
+        <v>0.09076783122748203</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0333252218452857</v>
+        <v>0.04480003198764027</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2095009415.071469</v>
+        <v>2231144405.505928</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1183899246604939</v>
+        <v>0.1191128990119336</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0255579434878375</v>
+        <v>0.02542588700841192</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2134582992.425512</v>
+        <v>1895303399.975011</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1041257473508381</v>
+        <v>0.1048887644327958</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03336238075959829</v>
+        <v>0.0333764557193425</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1917270066.125585</v>
+        <v>1883668853.193537</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1003433183081779</v>
+        <v>0.08126402079560123</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03768052661006384</v>
+        <v>0.03014157801561915</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1783540131.12886</v>
+        <v>2225576237.508871</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1600800116720887</v>
+        <v>0.1730895773259041</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02752972077240106</v>
+        <v>0.02182003374590316</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1298922408.674523</v>
+        <v>1643832480.269371</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1402706551275884</v>
+        <v>0.1257663776214537</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05706940170055586</v>
+        <v>0.05811217759586721</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2574673570.29686</v>
+        <v>2051988794.389008</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1210749784598054</v>
+        <v>0.1447295787194619</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04338359804632326</v>
+        <v>0.03457596010645352</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2968597736.740578</v>
+        <v>4160989216.894538</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1157212088333039</v>
+        <v>0.1097475022486822</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03206673172666516</v>
+        <v>0.03483250537881395</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2951092582.993244</v>
+        <v>2730891809.293699</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1303661566081624</v>
+        <v>0.1388683544639992</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0209693400848166</v>
+        <v>0.02299265472948543</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1857151930.437466</v>
+        <v>2356605369.726479</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07366861002046241</v>
+        <v>0.06517729838375952</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02618298154975031</v>
+        <v>0.03540964799645046</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2016019645.48875</v>
+        <v>1770278295.780907</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1450866063750894</v>
+        <v>0.1563008745402467</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04994895802385212</v>
+        <v>0.04520527801991862</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5593141987.827368</v>
+        <v>3634372599.259983</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1497012077961073</v>
+        <v>0.1161152763154204</v>
       </c>
       <c r="G46" t="n">
-        <v>0.049701924428955</v>
+        <v>0.0524398900260523</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4858452887.204542</v>
+        <v>4534410990.86452</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1695320681158904</v>
+        <v>0.1709596812922858</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03613241434138007</v>
+        <v>0.03705106804554036</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3188686859.608516</v>
+        <v>4014982917.309697</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1011992906398818</v>
+        <v>0.1077729152996021</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02659320037251759</v>
+        <v>0.02731444591455998</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1580249475.878328</v>
+        <v>1566607237.634844</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1252573152595656</v>
+        <v>0.1310486316393056</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03856292769407629</v>
+        <v>0.03698443816039949</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3450137070.838003</v>
+        <v>2716513500.646616</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1226645652842517</v>
+        <v>0.1362411001424306</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03332628574972361</v>
+        <v>0.04037700047665109</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1049187322.067998</v>
+        <v>1334761565.1206</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1672778012651087</v>
+        <v>0.1433867941121242</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04550515334160535</v>
+        <v>0.04619519052164373</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4329521250.210117</v>
+        <v>4819176374.305679</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1091429324226268</v>
+        <v>0.1032468765915517</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04003334936353247</v>
+        <v>0.05049112627651473</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,22 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3624645196.935668</v>
+        <v>3119692500.860334</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1244006400845573</v>
+        <v>0.145600499386288</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0320950093186378</v>
+        <v>0.02665046769900467</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3231474985.065184</v>
+        <v>3943799657.988113</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1631772036227041</v>
+        <v>0.1616346362925081</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04389876612598732</v>
+        <v>0.03719943463552901</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4091279319.633702</v>
+        <v>4990858203.522666</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2227410755062503</v>
+        <v>0.168592278358875</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0229365052040826</v>
+        <v>0.0199485388502907</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1767575955.938509</v>
+        <v>1364222825.121862</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1268159874602685</v>
+        <v>0.16172247916562</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04670135562903217</v>
+        <v>0.04979041035025636</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4305691718.358161</v>
+        <v>3812899344.772798</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1189933484947349</v>
+        <v>0.1681429052860059</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02482763249899749</v>
+        <v>0.01868337840451973</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1512236321.249395</v>
+        <v>1367895688.308986</v>
       </c>
       <c r="F58" t="n">
-        <v>0.196677796806455</v>
+        <v>0.1753390255056732</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03962216710976881</v>
+        <v>0.03156016096743003</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4380662208.983809</v>
+        <v>5321770838.305812</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1102505807346092</v>
+        <v>0.1158465554975772</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04377642836535919</v>
+        <v>0.04654080242781738</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3105070154.077046</v>
+        <v>3264341257.333653</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1936253430495817</v>
+        <v>0.1867576575790882</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02532348848942071</v>
+        <v>0.0206005125162826</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2515224265.272338</v>
+        <v>2404004205.14366</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1322291077791207</v>
+        <v>0.1419428233231545</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03106659179703897</v>
+        <v>0.0253327371825946</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1900323438.761417</v>
+        <v>1824556831.301041</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1892873096755461</v>
+        <v>0.1610784996962745</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03235512953511503</v>
+        <v>0.03863984388628674</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5478595287.673856</v>
+        <v>5616794205.834498</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07339020981498741</v>
+        <v>0.09506240924118045</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03298468812914844</v>
+        <v>0.03844734896331777</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5194278830.585593</v>
+        <v>4935563383.719224</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1403421116947908</v>
+        <v>0.1283572255794276</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03481033198972808</v>
+        <v>0.03234127561132726</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4596862881.40416</v>
+        <v>5415745793.776617</v>
       </c>
       <c r="F65" t="n">
-        <v>0.148871345647327</v>
+        <v>0.1116136060590297</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02129069020809894</v>
+        <v>0.02404416870526817</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3979033795.925646</v>
+        <v>4642061557.531223</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1103322744730913</v>
+        <v>0.1555492600084994</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03606349125897857</v>
+        <v>0.03480593634584352</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3014366642.750888</v>
+        <v>2510213879.484736</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06243981306561277</v>
+        <v>0.07959166175137765</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03233915097289639</v>
+        <v>0.03565849605515974</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4336877266.770409</v>
+        <v>4244338311.257416</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09787183926753501</v>
+        <v>0.1234122477885792</v>
       </c>
       <c r="G68" t="n">
-        <v>0.047616860741801</v>
+        <v>0.038164798568369</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1930679736.755361</v>
+        <v>1706385127.753692</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1631387993208641</v>
+        <v>0.1504344911922145</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03861391068676583</v>
+        <v>0.04991236843894859</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2786016413.393674</v>
+        <v>2943354363.476862</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06270546254903057</v>
+        <v>0.07500385824016378</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03430578191057689</v>
+        <v>0.04980540859174835</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,19 +2412,19 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3901930128.267425</v>
+        <v>5247359165.342249</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1123839419736647</v>
+        <v>0.1283831915846848</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02142841032573683</v>
+        <v>0.03147817068716748</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2265995596.217255</v>
+        <v>2282671622.619881</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0847884527071778</v>
+        <v>0.09819941717872241</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0494334144196077</v>
+        <v>0.04758861509703243</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3524596561.37904</v>
+        <v>3358188695.965787</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07070533293326331</v>
+        <v>0.1119114007192102</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03347133377343503</v>
+        <v>0.03298336541928547</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2490608366.632036</v>
+        <v>2529482963.078502</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1608977797644866</v>
+        <v>0.1590216885660387</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03413013321915009</v>
+        <v>0.02330893033950426</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2210188722.863412</v>
+        <v>1853264761.194182</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1283567667486819</v>
+        <v>0.127207602048915</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03786541528349091</v>
+        <v>0.02356880834051321</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,13 +2558,13 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4356298307.61271</v>
+        <v>5235938671.737322</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1067151501076602</v>
+        <v>0.08619390841354536</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02968336115550518</v>
+        <v>0.03010282141099252</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1556663518.94094</v>
+        <v>1389929189.676659</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1147540881284805</v>
+        <v>0.1652772939900825</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02975748568043208</v>
+        <v>0.01946584598253791</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3514895177.954752</v>
+        <v>4546331002.929564</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1138449755517982</v>
+        <v>0.08591324324012434</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05209810251076152</v>
+        <v>0.03498734627226766</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1609966566.360711</v>
+        <v>1713051769.197658</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1374261147354592</v>
+        <v>0.1326699315648495</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02766895790596949</v>
+        <v>0.02586334222232933</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4340272388.911457</v>
+        <v>3566615555.440889</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07012989927228165</v>
+        <v>0.06749069441927594</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03493105558675825</v>
+        <v>0.03252569893172332</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4950795884.593661</v>
+        <v>4544528091.939252</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1161142962335875</v>
+        <v>0.08895229134829395</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03157924259621259</v>
+        <v>0.03110848379684446</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3911453468.581073</v>
+        <v>3456000740.929917</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1893813201406279</v>
+        <v>0.139321469328567</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02448924945166326</v>
+        <v>0.02649708511561264</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1588261710.547396</v>
+        <v>2120762374.70754</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1207602251206641</v>
+        <v>0.1424389028144915</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04509541683085568</v>
+        <v>0.02951941882008614</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2091422068.06172</v>
+        <v>1673807756.498345</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1193755905597637</v>
+        <v>0.1023580432823482</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04025943557399528</v>
+        <v>0.0405564102307274</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,16 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3407690409.427766</v>
+        <v>3099594843.624675</v>
       </c>
       <c r="F85" t="n">
-        <v>0.139174133098372</v>
+        <v>0.1304566945625502</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04433551319106167</v>
+        <v>0.03504074352284428</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2743810197.159917</v>
+        <v>1880155391.382153</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1555679255892256</v>
+        <v>0.1341124534597996</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02602405247035349</v>
+        <v>0.0186280085861187</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1236982427.096533</v>
+        <v>1053547477.345328</v>
       </c>
       <c r="F87" t="n">
-        <v>0.132903293995335</v>
+        <v>0.1152278012832535</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0434525141720712</v>
+        <v>0.0364729167104401</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2838462238.523849</v>
+        <v>3742123338.316554</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1523705476935615</v>
+        <v>0.1199858099660401</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03950595403365672</v>
+        <v>0.0323512890616823</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2450674584.140038</v>
+        <v>3014644279.270367</v>
       </c>
       <c r="F89" t="n">
-        <v>0.120645521878976</v>
+        <v>0.1021856155462354</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03396296857280157</v>
+        <v>0.02746515831161443</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1336587977.528578</v>
+        <v>1713179327.79689</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08986384980958044</v>
+        <v>0.1020712383599275</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04211091256779134</v>
+        <v>0.03873722967437665</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1669160982.643239</v>
+        <v>1269673914.209662</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1498584698644113</v>
+        <v>0.1235940529886558</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0443836581016362</v>
+        <v>0.04967301715156405</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2453972712.67377</v>
+        <v>1892563185.982694</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1054979669818229</v>
+        <v>0.09153836806037766</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04584561254904705</v>
+        <v>0.03908197885927819</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3215787206.691206</v>
+        <v>4136496249.217248</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1365730879300014</v>
+        <v>0.1087357406196568</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0352415342172541</v>
+        <v>0.04448744701993117</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1953083997.979259</v>
+        <v>2254715750.740884</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1098753892668195</v>
+        <v>0.1647260548725913</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03124538964478114</v>
+        <v>0.02852722279240036</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,16 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3100537276.172184</v>
+        <v>2854093564.190328</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1163854535300325</v>
+        <v>0.08519063100100968</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04229422390987595</v>
+        <v>0.04926410026600467</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2345505518.452663</v>
+        <v>2113820042.656953</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1139536023818441</v>
+        <v>0.08728461479060293</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03078006360472955</v>
+        <v>0.04541632029585919</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5130092452.378932</v>
+        <v>5327270826.639925</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1310531200981586</v>
+        <v>0.164027529099255</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02453019092543993</v>
+        <v>0.02136020236962473</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3050492649.057863</v>
+        <v>3565334895.959081</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1147725327582494</v>
+        <v>0.1016188552680199</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0300346593586853</v>
+        <v>0.02214408876651253</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2662729788.326184</v>
+        <v>3187663792.959516</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09895624900049334</v>
+        <v>0.1015055247765266</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02915876658605899</v>
+        <v>0.03389096254505225</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3164772082.552423</v>
+        <v>4340990549.566065</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1643650270303205</v>
+        <v>0.1445532131375723</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02744686813566892</v>
+        <v>0.0231943143053545</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,22 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2633371757.731814</v>
+        <v>2760512706.886118</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1585399640498324</v>
+        <v>0.1880345795343082</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05156909142571493</v>
+        <v>0.03689691106561033</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_42.xlsx
+++ b/output/fit_clients/fit_round_42.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1893004921.086655</v>
+        <v>2320091276.23777</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07527090338130092</v>
+        <v>0.1036221455658772</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03903178193449187</v>
+        <v>0.03870170759554404</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1917376876.419305</v>
+        <v>2325954765.460099</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1307587494329444</v>
+        <v>0.1468497071763188</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05039410873537654</v>
+        <v>0.04278442398871364</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4306826946.284077</v>
+        <v>3258516942.780188</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1137945296920062</v>
+        <v>0.1608694025861762</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03458094313718878</v>
+        <v>0.03819544166906343</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>31</v>
+      </c>
+      <c r="J4" t="n">
+        <v>41</v>
+      </c>
+      <c r="K4" t="n">
+        <v>102.6016739124236</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +602,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3726668703.700272</v>
+        <v>4046931561.622663</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09084675653756398</v>
+        <v>0.1021534809517511</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04175798595311289</v>
+        <v>0.03317345161648288</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>19</v>
+      </c>
+      <c r="J5" t="n">
+        <v>41</v>
+      </c>
+      <c r="K5" t="n">
+        <v>164.6766663707405</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2611763792.115446</v>
+        <v>1992116141.456682</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1099948779860684</v>
+        <v>0.1165777123689802</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04496226460572273</v>
+        <v>0.04285019798179956</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +674,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2527786290.407408</v>
+        <v>2526653043.808565</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09553361613742087</v>
+        <v>0.06676985551543792</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0465014398062219</v>
+        <v>0.03100767160033155</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +709,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2853643574.851361</v>
+        <v>3764345410.202536</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1977308438301396</v>
+        <v>0.1362029079675083</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03301600491092854</v>
+        <v>0.02846154496624884</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>9</v>
+      </c>
+      <c r="J8" t="n">
+        <v>42</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2281473996.130862</v>
+        <v>2095308639.223541</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1761962371310296</v>
+        <v>0.1605404642933555</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03653906422934686</v>
+        <v>0.02837324024989827</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5082973729.249738</v>
+        <v>5429469999.353551</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1913766914288032</v>
+        <v>0.1399647911480214</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04589698826108234</v>
+        <v>0.04134385252213907</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>39</v>
+      </c>
+      <c r="J10" t="n">
+        <v>42</v>
+      </c>
+      <c r="K10" t="n">
+        <v>236.7396616335949</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +816,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3756532510.579186</v>
+        <v>3448361886.682753</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1211072001156547</v>
+        <v>0.1357621033461194</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04979129896265901</v>
+        <v>0.03653633846131091</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>19</v>
+      </c>
+      <c r="J11" t="n">
+        <v>40</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3241155317.794613</v>
+        <v>2890113919.543003</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1328022476887714</v>
+        <v>0.1432529690485364</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05363059056549372</v>
+        <v>0.03472112865365953</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,16 +892,25 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3883124401.319924</v>
+        <v>4745207526.675584</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08184102197958916</v>
+        <v>0.08858089760386598</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02005771971941077</v>
+        <v>0.02189084222985656</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>20</v>
+      </c>
+      <c r="J13" t="n">
+        <v>42</v>
+      </c>
+      <c r="K13" t="n">
+        <v>210.3943990198394</v>
       </c>
     </row>
     <row r="14">
@@ -822,17 +929,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2971223511.150381</v>
+        <v>2843038694.366361</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1533518560089219</v>
+        <v>0.1686583078450633</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02961874926072507</v>
+        <v>0.02976833286063847</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>7</v>
+      </c>
+      <c r="J14" t="n">
+        <v>36</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1342744036.094793</v>
+        <v>1112888348.110721</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1079802987953732</v>
+        <v>0.09967586276901901</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03005132897035849</v>
+        <v>0.03159638542288366</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +999,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2369129209.853779</v>
+        <v>2630463519.42111</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09181903802326495</v>
+        <v>0.1098029622120631</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04450411892962207</v>
+        <v>0.03601882194648007</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1028,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3224979263.418583</v>
+        <v>3915525895.447769</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1562214735561985</v>
+        <v>0.1453706013837995</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03209661324775799</v>
+        <v>0.0325363869400898</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>20</v>
+      </c>
+      <c r="J17" t="n">
+        <v>41</v>
+      </c>
+      <c r="K17" t="n">
+        <v>135.4852085969083</v>
       </c>
     </row>
     <row r="18">
@@ -934,16 +1071,25 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3820857136.441119</v>
+        <v>3327228697.775803</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1316491477212396</v>
+        <v>0.1711569541960342</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03340857636946888</v>
+        <v>0.03137227589378729</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>9</v>
+      </c>
+      <c r="J18" t="n">
+        <v>41</v>
+      </c>
+      <c r="K18" t="n">
+        <v>103.8375435293421</v>
       </c>
     </row>
     <row r="19">
@@ -962,17 +1108,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1073506149.671044</v>
+        <v>1106051826.590298</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1244545093247296</v>
+        <v>0.1896067711054939</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02313325530546257</v>
+        <v>0.02715738506821468</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1137,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2734237163.067555</v>
+        <v>2505422678.372569</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1004372465084803</v>
+        <v>0.1347817663668144</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02603885193819091</v>
+        <v>0.02319475482450242</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1172,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2482373145.393276</v>
+        <v>2602340279.732029</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09684308671551768</v>
+        <v>0.08713590105812674</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03735475693781796</v>
+        <v>0.02950661908499294</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1207,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2982140786.931295</v>
+        <v>3838057487.748892</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09338739084050193</v>
+        <v>0.1117637321800683</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03495782402521181</v>
+        <v>0.03828226601531829</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>11</v>
+      </c>
+      <c r="J22" t="n">
+        <v>42</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1242,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1050511252.09247</v>
+        <v>1031419551.611206</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1445262189961684</v>
+        <v>0.185952516231674</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03871008282458124</v>
+        <v>0.03732538610343271</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1283,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2801123740.145227</v>
+        <v>4071964913.522026</v>
       </c>
       <c r="F24" t="n">
-        <v>0.109546107512187</v>
+        <v>0.1495636960830293</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03282634670051386</v>
+        <v>0.03185528672442575</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>10</v>
+      </c>
+      <c r="J24" t="n">
+        <v>42</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1312,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>923511349.0120159</v>
+        <v>1419195656.424983</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1103065723156912</v>
+        <v>0.08808959658003303</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02662069529912406</v>
+        <v>0.02986024526258303</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1353,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1029662983.001052</v>
+        <v>1449505569.346827</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09306524670211007</v>
+        <v>0.1233628436921624</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03395552418664385</v>
+        <v>0.03302653972353877</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1382,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3035688489.911774</v>
+        <v>3948242400.950307</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1255449524380313</v>
+        <v>0.1110298880495833</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02352420450176099</v>
+        <v>0.02408537070907658</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>16</v>
+      </c>
+      <c r="J27" t="n">
+        <v>42</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1214,17 +1423,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2475733166.065289</v>
+        <v>3311101415.006207</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09400823165914343</v>
+        <v>0.1475142673708987</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04567891774069277</v>
+        <v>0.03077215927674294</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>11</v>
+      </c>
+      <c r="J28" t="n">
+        <v>40</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1452,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3648212905.07771</v>
+        <v>4725165000.60331</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1324526848878225</v>
+        <v>0.1083230987235015</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03255519662972298</v>
+        <v>0.03556231623136912</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>37</v>
+      </c>
+      <c r="J29" t="n">
+        <v>42</v>
+      </c>
+      <c r="K29" t="n">
+        <v>241.0210088708712</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2075559067.107499</v>
+        <v>1767664981.040386</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1164495903079066</v>
+        <v>0.1034549589308028</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02523190103035054</v>
+        <v>0.03715118855082385</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1530,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1490990321.249246</v>
+        <v>1011253926.97225</v>
       </c>
       <c r="F31" t="n">
-        <v>0.107139365704441</v>
+        <v>0.07544266035920344</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03908090497312466</v>
+        <v>0.03979497745776033</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1565,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1796464668.003798</v>
+        <v>1661147288.156578</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1184984730590932</v>
+        <v>0.09614334025346828</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03611756044238543</v>
+        <v>0.03454052884387691</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2934095545.086717</v>
+        <v>2128729785.846796</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1470229802611613</v>
+        <v>0.1477306994597987</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04490029266460165</v>
+        <v>0.05894087078207808</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1635,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1397649611.751255</v>
+        <v>1422748800.257426</v>
       </c>
       <c r="F34" t="n">
-        <v>0.107604582921806</v>
+        <v>0.1183931174787166</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02312099668151318</v>
+        <v>0.0241643315840948</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1670,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1100122093.946696</v>
+        <v>841805604.135551</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09076783122748203</v>
+        <v>0.08306979302502399</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04480003198764027</v>
+        <v>0.03830656971209086</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1699,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2231144405.505928</v>
+        <v>2868372789.498195</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1191128990119336</v>
+        <v>0.1680865225538513</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02542588700841192</v>
+        <v>0.02031254420031804</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1740,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1895303399.975011</v>
+        <v>1957712785.010423</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1048887644327958</v>
+        <v>0.07232966173046372</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0333764557193425</v>
+        <v>0.03697725892812399</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1883668853.193537</v>
+        <v>2130256434.167356</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08126402079560123</v>
+        <v>0.1182023957242591</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03014157801561915</v>
+        <v>0.03844542710860275</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1810,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2225576237.508871</v>
+        <v>2205281088.05043</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1730895773259041</v>
+        <v>0.1349651408557637</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02182003374590316</v>
+        <v>0.02991691597449714</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1845,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1643832480.269371</v>
+        <v>1692728280.913373</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1257663776214537</v>
+        <v>0.1175597366444749</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05811217759586721</v>
+        <v>0.04797525911910197</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2051988794.389008</v>
+        <v>2846260205.751785</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1447295787194619</v>
+        <v>0.1187459481058813</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03457596010645352</v>
+        <v>0.03374942949076896</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1909,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4160989216.894538</v>
+        <v>4060940998.081563</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1097475022486822</v>
+        <v>0.1077774528982861</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03483250537881395</v>
+        <v>0.03139243135481048</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>14</v>
+      </c>
+      <c r="J42" t="n">
+        <v>42</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2730891809.293699</v>
+        <v>2885298480.8328</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1388683544639992</v>
+        <v>0.1430224934861548</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02299265472948543</v>
+        <v>0.0231235945234234</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2356605369.726479</v>
+        <v>1715576017.014985</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06517729838375952</v>
+        <v>0.06424034940255391</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03540964799645046</v>
+        <v>0.02724897228015017</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1770278295.780907</v>
+        <v>1931512425.771982</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1563008745402467</v>
+        <v>0.1348884294119721</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04520527801991862</v>
+        <v>0.03546729438092908</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2049,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3634372599.259983</v>
+        <v>5060447647.525016</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1161152763154204</v>
+        <v>0.1439430781681264</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0524398900260523</v>
+        <v>0.05702897665190336</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>25</v>
+      </c>
+      <c r="J46" t="n">
+        <v>42</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2084,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4534410990.86452</v>
+        <v>4905306931.032372</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1709596812922858</v>
+        <v>0.1303220859884843</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03705106804554036</v>
+        <v>0.04682760689257488</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>18</v>
+      </c>
+      <c r="J47" t="n">
+        <v>41</v>
+      </c>
+      <c r="K47" t="n">
+        <v>183.5695918838888</v>
       </c>
     </row>
     <row r="48">
@@ -1774,17 +2127,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4014982917.309697</v>
+        <v>3460117724.889566</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1077729152996021</v>
+        <v>0.08602064960875637</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02731444591455998</v>
+        <v>0.02559549480006818</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>14</v>
+      </c>
+      <c r="J48" t="n">
+        <v>40</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1802,17 +2162,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1566607237.634844</v>
+        <v>1701286303.880863</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1310486316393056</v>
+        <v>0.1723790420744765</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03698443816039949</v>
+        <v>0.04351441929075876</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2191,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2716513500.646616</v>
+        <v>3424776005.22974</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1362411001424306</v>
+        <v>0.1180550522880053</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04037700047665109</v>
+        <v>0.04394726876662487</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>15</v>
+      </c>
+      <c r="J50" t="n">
+        <v>38</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1334761565.1206</v>
+        <v>929970495.8990419</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1433867941121242</v>
+        <v>0.1766452718856808</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04619519052164373</v>
+        <v>0.05239223877719931</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2261,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4819176374.305679</v>
+        <v>4816072248.52584</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1032468765915517</v>
+        <v>0.1039367799543671</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05049112627651473</v>
+        <v>0.0469069317534564</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>33</v>
+      </c>
+      <c r="J52" t="n">
+        <v>42</v>
+      </c>
+      <c r="K52" t="n">
+        <v>227.9371543241147</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3119692500.860334</v>
+        <v>3232494657.696482</v>
       </c>
       <c r="F53" t="n">
-        <v>0.145600499386288</v>
+        <v>0.1351836957221547</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02665046769900467</v>
+        <v>0.03054745898966867</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>6</v>
+      </c>
+      <c r="J53" t="n">
+        <v>36</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,16 +2339,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3943799657.988113</v>
+        <v>3892043980.005031</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1616346362925081</v>
+        <v>0.1529250400434337</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03719943463552901</v>
+        <v>0.03223803158510396</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>18</v>
+      </c>
+      <c r="J54" t="n">
+        <v>41</v>
+      </c>
+      <c r="K54" t="n">
+        <v>142.4918200370626</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2370,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4990858203.522666</v>
+        <v>4705218613.624908</v>
       </c>
       <c r="F55" t="n">
-        <v>0.168592278358875</v>
+        <v>0.1730210816495646</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0199485388502907</v>
+        <v>0.01997950163492872</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>20</v>
+      </c>
+      <c r="J55" t="n">
+        <v>41</v>
+      </c>
+      <c r="K55" t="n">
+        <v>182.9938304132204</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1364222825.121862</v>
+        <v>1733136354.335465</v>
       </c>
       <c r="F56" t="n">
-        <v>0.16172247916562</v>
+        <v>0.1331238398506297</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04979041035025636</v>
+        <v>0.04559733817038978</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2442,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3812899344.772798</v>
+        <v>3348640733.270626</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1681429052860059</v>
+        <v>0.1653111078848971</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01868337840451973</v>
+        <v>0.02142067648062999</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>16</v>
+      </c>
+      <c r="J57" t="n">
+        <v>39</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1367895688.308986</v>
+        <v>1406936966.139953</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1753390255056732</v>
+        <v>0.138229559152078</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03156016096743003</v>
+        <v>0.02944661539823125</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2512,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5321770838.305812</v>
+        <v>5313864194.445687</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1158465554975772</v>
+        <v>0.121072001653997</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04654080242781738</v>
+        <v>0.03348580051458221</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>20</v>
+      </c>
+      <c r="J59" t="n">
+        <v>41</v>
+      </c>
+      <c r="K59" t="n">
+        <v>185.1895907349053</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2549,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3264341257.333653</v>
+        <v>2343929441.848148</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1867576575790882</v>
+        <v>0.1857915641466992</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0206005125162826</v>
+        <v>0.02887879300412469</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>5</v>
+      </c>
+      <c r="J60" t="n">
+        <v>30</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2404004205.14366</v>
+        <v>2780663223.967693</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1419428233231545</v>
+        <v>0.1710652941815442</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0253327371825946</v>
+        <v>0.02285577689953643</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1824556831.301041</v>
+        <v>1308991438.708732</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1610784996962745</v>
+        <v>0.1666942783774132</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03863984388628674</v>
+        <v>0.04558667311254087</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2654,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5616794205.834498</v>
+        <v>4426157169.368843</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09506240924118045</v>
+        <v>0.07976934062138322</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03844734896331777</v>
+        <v>0.04124710783712102</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>20</v>
+      </c>
+      <c r="J63" t="n">
+        <v>42</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2689,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4935563383.719224</v>
+        <v>5508043592.043022</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1283572255794276</v>
+        <v>0.1481028863346434</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03234127561132726</v>
+        <v>0.02274702906811232</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>21</v>
+      </c>
+      <c r="J64" t="n">
+        <v>41</v>
+      </c>
+      <c r="K64" t="n">
+        <v>199.2795711752576</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2726,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5415745793.776617</v>
+        <v>5726816678.993423</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1116136060590297</v>
+        <v>0.1226033873004231</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02404416870526817</v>
+        <v>0.03091319999528271</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>34</v>
+      </c>
+      <c r="J65" t="n">
+        <v>42</v>
+      </c>
+      <c r="K65" t="n">
+        <v>213.120320190608</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2763,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4642061557.531223</v>
+        <v>4360711405.756837</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1555492600084994</v>
+        <v>0.151919286583854</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03480593634584352</v>
+        <v>0.0324965097364282</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>21</v>
+      </c>
+      <c r="J66" t="n">
+        <v>41</v>
+      </c>
+      <c r="K66" t="n">
+        <v>167.6553729457052</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2800,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2510213879.484736</v>
+        <v>3015079568.050932</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07959166175137765</v>
+        <v>0.06275651680004045</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03565849605515974</v>
+        <v>0.04301020272080442</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,16 +2841,25 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4244338311.257416</v>
+        <v>5023737635.397837</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1234122477885792</v>
+        <v>0.1442986490912953</v>
       </c>
       <c r="G68" t="n">
-        <v>0.038164798568369</v>
+        <v>0.03744744727951878</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>21</v>
+      </c>
+      <c r="J68" t="n">
+        <v>41</v>
+      </c>
+      <c r="K68" t="n">
+        <v>200.8615445674707</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2872,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1706385127.753692</v>
+        <v>1663006913.136093</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1504344911922145</v>
+        <v>0.1727041055533861</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04991236843894859</v>
+        <v>0.04364840322609467</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2907,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2943354363.476862</v>
+        <v>3419036700.105045</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07500385824016378</v>
+        <v>0.07173114466613952</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04980540859174835</v>
+        <v>0.03961173498045638</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>4</v>
+      </c>
+      <c r="J70" t="n">
+        <v>35</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2942,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5247359165.342249</v>
+        <v>3923282977.532986</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1283831915846848</v>
+        <v>0.1836974720273357</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03147817068716748</v>
+        <v>0.02378904246150127</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>35</v>
+      </c>
+      <c r="J71" t="n">
+        <v>41</v>
+      </c>
+      <c r="K71" t="n">
+        <v>149.0640923507105</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2979,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2282671622.619881</v>
+        <v>1560518008.387337</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09819941717872241</v>
+        <v>0.07209290713279248</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04758861509703243</v>
+        <v>0.04213696883768195</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3014,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3358188695.965787</v>
+        <v>3499712235.595914</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1119114007192102</v>
+        <v>0.1094884320353583</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03298336541928547</v>
+        <v>0.04587468022204363</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>2</v>
+      </c>
+      <c r="J73" t="n">
+        <v>42</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3049,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2529482963.078502</v>
+        <v>2814516988.886181</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1590216885660387</v>
+        <v>0.1456681720161782</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02330893033950426</v>
+        <v>0.02959202601221722</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>12</v>
+      </c>
+      <c r="J74" t="n">
+        <v>39</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3090,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1853264761.194182</v>
+        <v>2008678086.03071</v>
       </c>
       <c r="F75" t="n">
-        <v>0.127207602048915</v>
+        <v>0.1050234553958105</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02356880834051321</v>
+        <v>0.03711569713875456</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3119,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5235938671.737322</v>
+        <v>4777185887.469205</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08619390841354536</v>
+        <v>0.07860560948528568</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03010282141099252</v>
+        <v>0.02236335568466868</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>20</v>
+      </c>
+      <c r="J76" t="n">
+        <v>41</v>
+      </c>
+      <c r="K76" t="n">
+        <v>169.7928445518701</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3156,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1389929189.676659</v>
+        <v>2143780983.133763</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1652772939900825</v>
+        <v>0.116528079809297</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01946584598253791</v>
+        <v>0.02339112648129399</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3191,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4546331002.929564</v>
+        <v>2940339899.059969</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08591324324012434</v>
+        <v>0.0875574023294324</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03498734627226766</v>
+        <v>0.05090652114230446</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>18</v>
+      </c>
+      <c r="J78" t="n">
+        <v>41</v>
+      </c>
+      <c r="K78" t="n">
+        <v>82.69448767212569</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3234,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1713051769.197658</v>
+        <v>1261757303.8771</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1326699315648495</v>
+        <v>0.1420660117153394</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02586334222232933</v>
+        <v>0.03095562229385044</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,17 +3269,24 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3566615555.440889</v>
+        <v>4786990816.957788</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06749069441927594</v>
+        <v>0.09955427831862562</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03252569893172332</v>
+        <v>0.02855468451556415</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>20</v>
+      </c>
+      <c r="J80" t="n">
+        <v>42</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3298,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4544528091.939252</v>
+        <v>4021827673.398317</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08895229134829395</v>
+        <v>0.08527090579053617</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03110848379684446</v>
+        <v>0.02607799398596543</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>18</v>
+      </c>
+      <c r="J81" t="n">
+        <v>42</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,23 +3333,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3456000740.929917</v>
+        <v>5132142853.19376</v>
       </c>
       <c r="F82" t="n">
-        <v>0.139321469328567</v>
+        <v>0.1410031864581897</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02649708511561264</v>
+        <v>0.02416941535602966</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>23</v>
+      </c>
+      <c r="J82" t="n">
+        <v>42</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2120762374.70754</v>
+        <v>2455499921.415982</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1424389028144915</v>
+        <v>0.1495163979008725</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02951941882008614</v>
+        <v>0.03767614761322526</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1673807756.498345</v>
+        <v>1693634478.684997</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1023580432823482</v>
+        <v>0.09229842020625577</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0405564102307274</v>
+        <v>0.03307824042784994</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3444,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3099594843.624675</v>
+        <v>2948977567.925076</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1304566945625502</v>
+        <v>0.1410512713520454</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03504074352284428</v>
+        <v>0.04020598161564326</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>7</v>
+      </c>
+      <c r="J85" t="n">
+        <v>37</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3479,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1880155391.382153</v>
+        <v>2407127718.556695</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1341124534597996</v>
+        <v>0.1199283663420378</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0186280085861187</v>
+        <v>0.01872880326885101</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1053547477.345328</v>
+        <v>1195032605.018184</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1152278012832535</v>
+        <v>0.1583158112776942</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0364729167104401</v>
+        <v>0.03846234458398343</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3742123338.316554</v>
+        <v>3602336351.213259</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1199858099660401</v>
+        <v>0.1165738260158532</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0323512890616823</v>
+        <v>0.03151294915397875</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>5</v>
+      </c>
+      <c r="J88" t="n">
+        <v>42</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3584,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3014644279.270367</v>
+        <v>2154531258.332054</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1021856155462354</v>
+        <v>0.1380929763121456</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02746515831161443</v>
+        <v>0.03651724177272718</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>5</v>
+      </c>
+      <c r="J89" t="n">
+        <v>40</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1713179327.79689</v>
+        <v>1639816743.73424</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1020712383599275</v>
+        <v>0.1161571685467661</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03873722967437665</v>
+        <v>0.04814612635139116</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1269673914.209662</v>
+        <v>1303483235.089161</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1235940529886558</v>
+        <v>0.1319221082014625</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04967301715156405</v>
+        <v>0.04822051058489178</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1892563185.982694</v>
+        <v>2165010313.711788</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09153836806037766</v>
+        <v>0.1015514337916205</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03908197885927819</v>
+        <v>0.04375109134443594</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3718,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4136496249.217248</v>
+        <v>4551735868.941533</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1087357406196568</v>
+        <v>0.09707281824887688</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04448744701993117</v>
+        <v>0.05297623775333348</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>19</v>
+      </c>
+      <c r="J93" t="n">
+        <v>41</v>
+      </c>
+      <c r="K93" t="n">
+        <v>184.0082652709652</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3755,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2254715750.740884</v>
+        <v>2092462159.777743</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1647260548725913</v>
+        <v>0.1362708383083495</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02852722279240036</v>
+        <v>0.02814805860724739</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3790,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2854093564.190328</v>
+        <v>2627262775.487801</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08519063100100968</v>
+        <v>0.1239965365290562</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04926410026600467</v>
+        <v>0.03418310223215704</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3831,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2113820042.656953</v>
+        <v>2216510220.514232</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08728461479060293</v>
+        <v>0.1011958422069236</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04541632029585919</v>
+        <v>0.02940966953102889</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3860,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5327270826.639925</v>
+        <v>5272383230.090182</v>
       </c>
       <c r="F97" t="n">
-        <v>0.164027529099255</v>
+        <v>0.1136096395473648</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02136020236962473</v>
+        <v>0.02387297116460004</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>20</v>
+      </c>
+      <c r="J97" t="n">
+        <v>42</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3565334895.959081</v>
+        <v>3878169044.653412</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1016188552680199</v>
+        <v>0.1153537596693236</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02214408876651253</v>
+        <v>0.0202037002466971</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>10</v>
+      </c>
+      <c r="J98" t="n">
+        <v>42</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3187663792.959516</v>
+        <v>2160262394.361358</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1015055247765266</v>
+        <v>0.08929185900758342</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03389096254505225</v>
+        <v>0.03544939305496762</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4340990549.566065</v>
+        <v>4606747652.761817</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1445532131375723</v>
+        <v>0.159941717968848</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0231943143053545</v>
+        <v>0.01929384894538308</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>19</v>
+      </c>
+      <c r="J100" t="n">
+        <v>42</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2760512706.886118</v>
+        <v>2817983612.019269</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1880345795343082</v>
+        <v>0.1858187700434377</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03689691106561033</v>
+        <v>0.04174396598227276</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>2</v>
+      </c>
+      <c r="J101" t="n">
+        <v>35</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
